--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Assumption_Report.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Assumption_Report.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 01/26/21 5:53:52 PM</t>
+    <t>Printed on: 02/10/21 5:13:36 AM</t>
   </si>
   <si>
     <t>Deposit Account Models</t>
@@ -1629,7 +1629,7 @@
     <t xml:space="preserve">The Gross loss table provides the base and general loss assumptions for the loans.  For more detailed information, refer to loan loss app online and THC articles about the credit models. </t>
   </si>
   <si>
-    <t>THC updated the bank's Gross Loss on 8/14/2020 10:20:39 AM, and enable credit OAS model for regulation reports.</t>
+    <t>THC updated the bank's Gross Loss on 2/5/2021 10:44:50 AM, and enable credit OAS model for regulation reports.</t>
   </si>
   <si>
     <t xml:space="preserve">Internal Credit Rating </t>
@@ -41139,31 +41139,31 @@
         <v>153</v>
       </c>
       <c r="B19" s="315">
-        <v>1.16417223485094</v>
+        <v>1.16430707047098</v>
       </c>
       <c r="C19" s="315">
-        <v>1.2542118060490746</v>
+        <v>1.2543466416691145</v>
       </c>
       <c r="D19" s="315">
-        <v>1.2641483195661121</v>
+        <v>1.264283155186152</v>
       </c>
       <c r="E19" s="315">
-        <v>1.3342636786930424</v>
+        <v>1.3343985143130823</v>
       </c>
       <c r="F19" s="315">
-        <v>1.5252051262095219</v>
+        <v>1.5253399618295618</v>
       </c>
       <c r="G19" s="315">
-        <v>1.8204225546753976</v>
+        <v>1.8205573902954375</v>
       </c>
       <c r="H19" s="315">
-        <v>2.1100325715034556</v>
+        <v>2.1101674071234955</v>
       </c>
       <c r="I19" s="315">
-        <v>2.6756067266961052</v>
+        <v>2.6757415623161451</v>
       </c>
       <c r="J19" s="315">
-        <v>2.9015681392363151</v>
+        <v>2.901702974856355</v>
       </c>
       <c r="K19" s="315">
         <v>0.543451899757478</v>
@@ -41180,31 +41180,31 @@
         <v>155</v>
       </c>
       <c r="B20" s="316">
-        <v>1.16417223485094</v>
+        <v>1.16430707047098</v>
       </c>
       <c r="C20" s="316">
-        <v>1.2542118060490746</v>
+        <v>1.2543466416691145</v>
       </c>
       <c r="D20" s="316">
-        <v>1.2641483195661121</v>
+        <v>1.264283155186152</v>
       </c>
       <c r="E20" s="316">
-        <v>1.3342636786930424</v>
+        <v>1.3343985143130823</v>
       </c>
       <c r="F20" s="316">
-        <v>1.5252051262095219</v>
+        <v>1.5253399618295618</v>
       </c>
       <c r="G20" s="316">
-        <v>1.8204225546753976</v>
+        <v>1.8205573902954375</v>
       </c>
       <c r="H20" s="316">
-        <v>2.1100325715034556</v>
+        <v>2.1101674071234955</v>
       </c>
       <c r="I20" s="316">
-        <v>2.6756067266961052</v>
+        <v>2.6757415623161451</v>
       </c>
       <c r="J20" s="316">
-        <v>2.9015681392363151</v>
+        <v>2.901702974856355</v>
       </c>
       <c r="K20" s="316">
         <v>0.543451899757478</v>
@@ -41320,31 +41320,31 @@
         <v>159</v>
       </c>
       <c r="B24" s="316">
-        <v>1.0049576063089571</v>
+        <v>1.0047690228379254</v>
       </c>
       <c r="C24" s="316">
-        <v>1.0949971775070917</v>
+        <v>1.09480859403606</v>
       </c>
       <c r="D24" s="316">
-        <v>1.1049336910241292</v>
+        <v>1.1047451075530974</v>
       </c>
       <c r="E24" s="316">
-        <v>1.1750490501510595</v>
+        <v>1.1748604666800278</v>
       </c>
       <c r="F24" s="316">
-        <v>1.365990497667539</v>
+        <v>1.3658019141965072</v>
       </c>
       <c r="G24" s="316">
-        <v>1.6612079261334147</v>
+        <v>1.6610193426623829</v>
       </c>
       <c r="H24" s="316">
-        <v>1.9508179429614727</v>
+        <v>1.9506293594904409</v>
       </c>
       <c r="I24" s="316">
-        <v>2.5163920981541228</v>
+        <v>2.5162035146830908</v>
       </c>
       <c r="J24" s="316">
-        <v>2.7423535106943318</v>
+        <v>2.7421649272233</v>
       </c>
       <c r="K24" s="316">
         <v>0.4585607094133699</v>
@@ -41361,31 +41361,31 @@
         <v>160</v>
       </c>
       <c r="B25" s="316">
-        <v>0.28656364878251883</v>
+        <v>0.28612102079371154</v>
       </c>
       <c r="C25" s="316">
-        <v>0.37660321998065327</v>
+        <v>0.376160591991846</v>
       </c>
       <c r="D25" s="316">
-        <v>0.38653973349769088</v>
+        <v>0.38609710550888365</v>
       </c>
       <c r="E25" s="316">
-        <v>0.45665509262462128</v>
+        <v>0.456212464635814</v>
       </c>
       <c r="F25" s="316">
-        <v>0.64759654014110068</v>
+        <v>0.64715391215229334</v>
       </c>
       <c r="G25" s="316">
-        <v>0.94281396860697642</v>
+        <v>0.94237134061816907</v>
       </c>
       <c r="H25" s="316">
-        <v>1.2324239854350343</v>
+        <v>1.2319813574462271</v>
       </c>
       <c r="I25" s="316">
-        <v>1.7979981406276844</v>
+        <v>1.7975555126388769</v>
       </c>
       <c r="J25" s="316">
-        <v>2.0239595531678938</v>
+        <v>2.0235169251790865</v>
       </c>
       <c r="K25" s="316">
         <v>0.12883288616328104</v>
@@ -41453,31 +41453,31 @@
         <v>164</v>
       </c>
       <c r="B29" s="315">
-        <v>1.9953692200000002</v>
+        <v>1.99604356</v>
       </c>
       <c r="C29" s="315">
-        <v>2.0854087911981347</v>
+        <v>2.0860831311981345</v>
       </c>
       <c r="D29" s="315">
-        <v>2.0953453047151722</v>
+        <v>2.096019644715172</v>
       </c>
       <c r="E29" s="315">
-        <v>2.1654606638421026</v>
+        <v>2.1661350038421023</v>
       </c>
       <c r="F29" s="315">
-        <v>2.356402111358582</v>
+        <v>2.3570764513585818</v>
       </c>
       <c r="G29" s="315">
-        <v>2.6516195398244577</v>
+        <v>2.6522938798244575</v>
       </c>
       <c r="H29" s="315">
-        <v>2.941229556652516</v>
+        <v>2.9419038966525157</v>
       </c>
       <c r="I29" s="315">
-        <v>3.5068037118451656</v>
+        <v>3.5074780518451654</v>
       </c>
       <c r="J29" s="315">
-        <v>3.732765124385375</v>
+        <v>3.7334394643853748</v>
       </c>
       <c r="K29" s="315">
         <v>0.2</v>
@@ -41494,31 +41494,31 @@
         <v>165</v>
       </c>
       <c r="B30" s="315">
-        <v>1.9953692200000004</v>
+        <v>1.99604356</v>
       </c>
       <c r="C30" s="315">
-        <v>2.0854087911981347</v>
+        <v>2.0860831311981345</v>
       </c>
       <c r="D30" s="315">
-        <v>2.0953453047151727</v>
+        <v>2.096019644715172</v>
       </c>
       <c r="E30" s="315">
-        <v>2.165460663842103</v>
+        <v>2.1661350038421023</v>
       </c>
       <c r="F30" s="315">
-        <v>2.356402111358582</v>
+        <v>2.3570764513585818</v>
       </c>
       <c r="G30" s="315">
-        <v>2.6516195398244582</v>
+        <v>2.6522938798244575</v>
       </c>
       <c r="H30" s="315">
-        <v>2.941229556652516</v>
+        <v>2.9419038966525157</v>
       </c>
       <c r="I30" s="315">
-        <v>3.5068037118451656</v>
+        <v>3.5074780518451654</v>
       </c>
       <c r="J30" s="315">
-        <v>3.7327651243853754</v>
+        <v>3.7334394643853748</v>
       </c>
       <c r="K30" s="315">
         <v>0.2</v>
@@ -41535,31 +41535,31 @@
         <v>166</v>
       </c>
       <c r="B31" s="316">
-        <v>1.9953692200000002</v>
+        <v>1.99604356</v>
       </c>
       <c r="C31" s="316">
-        <v>2.0854087911981347</v>
+        <v>2.0860831311981345</v>
       </c>
       <c r="D31" s="316">
-        <v>2.0953453047151722</v>
+        <v>2.096019644715172</v>
       </c>
       <c r="E31" s="316">
-        <v>2.1654606638421026</v>
+        <v>2.1661350038421023</v>
       </c>
       <c r="F31" s="316">
-        <v>2.356402111358582</v>
+        <v>2.3570764513585818</v>
       </c>
       <c r="G31" s="316">
-        <v>2.6516195398244577</v>
+        <v>2.6522938798244575</v>
       </c>
       <c r="H31" s="316">
-        <v>2.941229556652516</v>
+        <v>2.9419038966525157</v>
       </c>
       <c r="I31" s="316">
-        <v>3.5068037118451656</v>
+        <v>3.5074780518451654</v>
       </c>
       <c r="J31" s="316">
-        <v>3.732765124385375</v>
+        <v>3.7334394643853748</v>
       </c>
       <c r="K31" s="316">
         <v>0.2</v>
@@ -41576,31 +41576,31 @@
         <v>167</v>
       </c>
       <c r="B32" s="315">
-        <v>1.72167854</v>
+        <v>1.7218547000000002</v>
       </c>
       <c r="C32" s="315">
-        <v>1.8117181111981346</v>
+        <v>1.8118942711981347</v>
       </c>
       <c r="D32" s="315">
-        <v>1.8216546247151721</v>
+        <v>1.8218307847151722</v>
       </c>
       <c r="E32" s="315">
-        <v>1.8917699838421025</v>
+        <v>1.8919461438421026</v>
       </c>
       <c r="F32" s="315">
-        <v>2.0827114313585819</v>
+        <v>2.082887591358582</v>
       </c>
       <c r="G32" s="315">
-        <v>2.3779288598244577</v>
+        <v>2.3781050198244578</v>
       </c>
       <c r="H32" s="315">
-        <v>2.6675388766525154</v>
+        <v>2.667715036652516</v>
       </c>
       <c r="I32" s="315">
-        <v>3.2331130318451655</v>
+        <v>3.2332891918451656</v>
       </c>
       <c r="J32" s="315">
-        <v>3.4590744443853749</v>
+        <v>3.459250604385375</v>
       </c>
       <c r="K32" s="315">
         <v>0.2</v>
@@ -41634,31 +41634,31 @@
         <v>169</v>
       </c>
       <c r="B34" s="315">
-        <v>2.09725237</v>
+        <v>2.09716255</v>
       </c>
       <c r="C34" s="315">
-        <v>2.1872919411981346</v>
+        <v>2.1872021211981347</v>
       </c>
       <c r="D34" s="315">
-        <v>2.1972284547151721</v>
+        <v>2.1971386347151722</v>
       </c>
       <c r="E34" s="315">
-        <v>2.2673438138421025</v>
+        <v>2.2672539938421026</v>
       </c>
       <c r="F34" s="315">
-        <v>2.4582852613585819</v>
+        <v>2.458195441358582</v>
       </c>
       <c r="G34" s="315">
-        <v>2.7535026898244577</v>
+        <v>2.7534128698244578</v>
       </c>
       <c r="H34" s="315">
-        <v>3.0431127066525159</v>
+        <v>3.0430228866525155</v>
       </c>
       <c r="I34" s="315">
-        <v>3.6086868618451655</v>
+        <v>3.6085970418451656</v>
       </c>
       <c r="J34" s="315">
-        <v>3.8346482743853749</v>
+        <v>3.834558454385375</v>
       </c>
       <c r="K34" s="315">
         <v>0.2</v>
@@ -41692,31 +41692,31 @@
         <v>171</v>
       </c>
       <c r="B36" s="315">
-        <v>1.7036674299999999</v>
+        <v>1.7034022400000004</v>
       </c>
       <c r="C36" s="315">
-        <v>1.7937070011981344</v>
+        <v>1.793441811198135</v>
       </c>
       <c r="D36" s="315">
-        <v>1.8036435147151719</v>
+        <v>1.8033783247151725</v>
       </c>
       <c r="E36" s="315">
-        <v>1.8737588738421023</v>
+        <v>1.8734936838421028</v>
       </c>
       <c r="F36" s="315">
-        <v>2.0647003213585817</v>
+        <v>2.0644351313585823</v>
       </c>
       <c r="G36" s="315">
-        <v>2.3599177498244575</v>
+        <v>2.359652559824458</v>
       </c>
       <c r="H36" s="315">
-        <v>2.6495277666525157</v>
+        <v>2.6492625766525162</v>
       </c>
       <c r="I36" s="315">
-        <v>3.2151019218451653</v>
+        <v>3.2148367318451658</v>
       </c>
       <c r="J36" s="315">
-        <v>3.4410633343853747</v>
+        <v>3.4407981443853752</v>
       </c>
       <c r="K36" s="315">
         <v>0.2</v>
@@ -41733,31 +41733,31 @@
         <v>172</v>
       </c>
       <c r="B37" s="315">
-        <v>2.09725237</v>
+        <v>2.09716255</v>
       </c>
       <c r="C37" s="315">
-        <v>2.1872919411981346</v>
+        <v>2.1872021211981347</v>
       </c>
       <c r="D37" s="315">
-        <v>2.1972284547151721</v>
+        <v>2.1971386347151722</v>
       </c>
       <c r="E37" s="315">
-        <v>2.2673438138421025</v>
+        <v>2.2672539938421026</v>
       </c>
       <c r="F37" s="315">
-        <v>2.4582852613585819</v>
+        <v>2.458195441358582</v>
       </c>
       <c r="G37" s="315">
-        <v>2.7535026898244577</v>
+        <v>2.7534128698244578</v>
       </c>
       <c r="H37" s="315">
-        <v>3.0431127066525159</v>
+        <v>3.0430228866525155</v>
       </c>
       <c r="I37" s="315">
-        <v>3.6086868618451655</v>
+        <v>3.6085970418451656</v>
       </c>
       <c r="J37" s="315">
-        <v>3.8346482743853749</v>
+        <v>3.834558454385375</v>
       </c>
       <c r="K37" s="315">
         <v>0.2</v>
@@ -41774,31 +41774,31 @@
         <v>173</v>
       </c>
       <c r="B38" s="316">
-        <v>1.7082008816970979</v>
+        <v>1.707940597190601</v>
       </c>
       <c r="C38" s="316">
-        <v>1.7982404528952325</v>
+        <v>1.7979801683887355</v>
       </c>
       <c r="D38" s="316">
-        <v>1.80817696641227</v>
+        <v>1.807916681905773</v>
       </c>
       <c r="E38" s="316">
-        <v>1.8782923255392003</v>
+        <v>1.8780320410327034</v>
       </c>
       <c r="F38" s="316">
-        <v>2.0692337730556796</v>
+        <v>2.0689734885491831</v>
       </c>
       <c r="G38" s="316">
-        <v>2.3644512015215557</v>
+        <v>2.3641909170150583</v>
       </c>
       <c r="H38" s="316">
-        <v>2.6540612183496135</v>
+        <v>2.6538009338431165</v>
       </c>
       <c r="I38" s="316">
-        <v>3.2196353735422631</v>
+        <v>3.2193750890357666</v>
       </c>
       <c r="J38" s="316">
-        <v>3.445596786082473</v>
+        <v>3.4453365015759756</v>
       </c>
       <c r="K38" s="316">
         <v>0.2</v>
@@ -41815,31 +41815,31 @@
         <v>174</v>
       </c>
       <c r="B39" s="316">
-        <v>1.7201968824168827</v>
+        <v>1.7199492537722083</v>
       </c>
       <c r="C39" s="316">
-        <v>1.8102364536150173</v>
+        <v>1.8099888249703429</v>
       </c>
       <c r="D39" s="316">
-        <v>1.8201729671320548</v>
+        <v>1.8199253384873804</v>
       </c>
       <c r="E39" s="316">
-        <v>1.8902883262589851</v>
+        <v>1.8900406976143107</v>
       </c>
       <c r="F39" s="316">
-        <v>2.0812297737754646</v>
+        <v>2.08098214513079</v>
       </c>
       <c r="G39" s="316">
-        <v>2.3764472022413403</v>
+        <v>2.3761995735966659</v>
       </c>
       <c r="H39" s="316">
-        <v>2.6660572190693985</v>
+        <v>2.6658095904247237</v>
       </c>
       <c r="I39" s="316">
-        <v>3.2316313742620482</v>
+        <v>3.2313837456173737</v>
       </c>
       <c r="J39" s="316">
-        <v>3.4575927868022576</v>
+        <v>3.4573451581575831</v>
       </c>
       <c r="K39" s="316">
         <v>0.2</v>
@@ -41873,31 +41873,31 @@
         <v>176</v>
       </c>
       <c r="B41" s="315">
-        <v>1.72167854</v>
+        <v>1.7218547000000002</v>
       </c>
       <c r="C41" s="315">
-        <v>1.8117181111981346</v>
+        <v>1.8118942711981347</v>
       </c>
       <c r="D41" s="315">
-        <v>1.8216546247151721</v>
+        <v>1.8218307847151722</v>
       </c>
       <c r="E41" s="315">
-        <v>1.8917699838421025</v>
+        <v>1.8919461438421026</v>
       </c>
       <c r="F41" s="315">
-        <v>2.0827114313585819</v>
+        <v>2.082887591358582</v>
       </c>
       <c r="G41" s="315">
-        <v>2.3779288598244577</v>
+        <v>2.3781050198244578</v>
       </c>
       <c r="H41" s="315">
-        <v>2.6675388766525154</v>
+        <v>2.667715036652516</v>
       </c>
       <c r="I41" s="315">
-        <v>3.2331130318451655</v>
+        <v>3.2332891918451656</v>
       </c>
       <c r="J41" s="315">
-        <v>3.4590744443853749</v>
+        <v>3.459250604385375</v>
       </c>
       <c r="K41" s="315">
         <v>0.2</v>
@@ -41914,31 +41914,31 @@
         <v>177</v>
       </c>
       <c r="B42" s="315">
-        <v>1.72167854</v>
+        <v>1.7218547000000002</v>
       </c>
       <c r="C42" s="315">
-        <v>1.8117181111981346</v>
+        <v>1.8118942711981347</v>
       </c>
       <c r="D42" s="315">
-        <v>1.8216546247151721</v>
+        <v>1.8218307847151722</v>
       </c>
       <c r="E42" s="315">
-        <v>1.8917699838421025</v>
+        <v>1.8919461438421026</v>
       </c>
       <c r="F42" s="315">
-        <v>2.0827114313585819</v>
+        <v>2.082887591358582</v>
       </c>
       <c r="G42" s="315">
-        <v>2.3779288598244577</v>
+        <v>2.3781050198244578</v>
       </c>
       <c r="H42" s="315">
-        <v>2.6675388766525154</v>
+        <v>2.667715036652516</v>
       </c>
       <c r="I42" s="315">
-        <v>3.2331130318451655</v>
+        <v>3.2332891918451656</v>
       </c>
       <c r="J42" s="315">
-        <v>3.4590744443853749</v>
+        <v>3.459250604385375</v>
       </c>
       <c r="K42" s="315">
         <v>0.2</v>
@@ -41955,31 +41955,31 @@
         <v>178</v>
       </c>
       <c r="B43" s="316">
-        <v>1.7216785399999997</v>
+        <v>1.7218547000000004</v>
       </c>
       <c r="C43" s="316">
-        <v>1.8117181111981342</v>
+        <v>1.811894271198135</v>
       </c>
       <c r="D43" s="316">
-        <v>1.8216546247151717</v>
+        <v>1.8218307847151725</v>
       </c>
       <c r="E43" s="316">
-        <v>1.891769983842102</v>
+        <v>1.8919461438421028</v>
       </c>
       <c r="F43" s="316">
-        <v>2.0827114313585815</v>
+        <v>2.082887591358582</v>
       </c>
       <c r="G43" s="316">
-        <v>2.3779288598244572</v>
+        <v>2.3781050198244582</v>
       </c>
       <c r="H43" s="316">
-        <v>2.6675388766525154</v>
+        <v>2.667715036652516</v>
       </c>
       <c r="I43" s="316">
-        <v>3.2331130318451651</v>
+        <v>3.2332891918451656</v>
       </c>
       <c r="J43" s="316">
-        <v>3.4590744443853745</v>
+        <v>3.4592506043853755</v>
       </c>
       <c r="K43" s="316">
         <v>0.2</v>
@@ -41996,31 +41996,31 @@
         <v>179</v>
       </c>
       <c r="B44" s="316">
-        <v>1.7357129757015355</v>
+        <v>1.7355927386681396</v>
       </c>
       <c r="C44" s="316">
-        <v>1.82575254689967</v>
+        <v>1.8256323098662741</v>
       </c>
       <c r="D44" s="316">
-        <v>1.8356890604167075</v>
+        <v>1.8355688233833116</v>
       </c>
       <c r="E44" s="316">
-        <v>1.9058044195436379</v>
+        <v>1.905684182510242</v>
       </c>
       <c r="F44" s="316">
-        <v>2.0967458670601173</v>
+        <v>2.0966256300267214</v>
       </c>
       <c r="G44" s="316">
-        <v>2.3919632955259931</v>
+        <v>2.3918430584925972</v>
       </c>
       <c r="H44" s="316">
-        <v>2.6815733123540513</v>
+        <v>2.6814530753206549</v>
       </c>
       <c r="I44" s="316">
-        <v>3.2471474675467009</v>
+        <v>3.247027230513305</v>
       </c>
       <c r="J44" s="316">
-        <v>3.4731088800869103</v>
+        <v>3.4729886430535144</v>
       </c>
       <c r="K44" s="316">
         <v>0.2</v>
@@ -42037,31 +42037,31 @@
         <v>180</v>
       </c>
       <c r="B45" s="315">
-        <v>1.71982344</v>
+        <v>1.72002399</v>
       </c>
       <c r="C45" s="315">
-        <v>1.8098630111981346</v>
+        <v>1.8100635611981346</v>
       </c>
       <c r="D45" s="315">
-        <v>1.8197995247151722</v>
+        <v>1.8200000747151721</v>
       </c>
       <c r="E45" s="315">
-        <v>1.8899148838421025</v>
+        <v>1.8901154338421025</v>
       </c>
       <c r="F45" s="315">
-        <v>2.0808563313585822</v>
+        <v>2.0810568813585819</v>
       </c>
       <c r="G45" s="315">
-        <v>2.3760737598244575</v>
+        <v>2.3762743098244576</v>
       </c>
       <c r="H45" s="315">
-        <v>2.6656837766525157</v>
+        <v>2.6658843266525158</v>
       </c>
       <c r="I45" s="315">
-        <v>3.2312579318451657</v>
+        <v>3.2314584818451655</v>
       </c>
       <c r="J45" s="315">
-        <v>3.4572193443853747</v>
+        <v>3.4574198943853749</v>
       </c>
       <c r="K45" s="315">
         <v>0.2</v>
@@ -42078,31 +42078,31 @@
         <v>181</v>
       </c>
       <c r="B46" s="315">
-        <v>1.55328689658139</v>
+        <v>1.55323439305312</v>
       </c>
       <c r="C46" s="315">
-        <v>1.6433264677795245</v>
+        <v>1.6432739642512546</v>
       </c>
       <c r="D46" s="315">
-        <v>1.653262981296562</v>
+        <v>1.6532104777682921</v>
       </c>
       <c r="E46" s="315">
-        <v>1.7233783404234924</v>
+        <v>1.7233258368952225</v>
       </c>
       <c r="F46" s="315">
-        <v>1.9143197879399718</v>
+        <v>1.9142672844117019</v>
       </c>
       <c r="G46" s="315">
-        <v>2.2095372164058475</v>
+        <v>2.2094847128775776</v>
       </c>
       <c r="H46" s="315">
-        <v>2.4991472332339058</v>
+        <v>2.4990947297056358</v>
       </c>
       <c r="I46" s="315">
-        <v>3.0647213884265554</v>
+        <v>3.0646688848982855</v>
       </c>
       <c r="J46" s="315">
-        <v>3.2906828009667648</v>
+        <v>3.2906302974384949</v>
       </c>
       <c r="K46" s="315">
         <v>0.155672268907563</v>
@@ -42136,31 +42136,31 @@
         <v>183</v>
       </c>
       <c r="B48" s="315">
-        <v>2.14315465</v>
+        <v>2.14394521</v>
       </c>
       <c r="C48" s="315">
-        <v>2.2331942211981346</v>
+        <v>2.2339847811981346</v>
       </c>
       <c r="D48" s="315">
-        <v>2.2431307347151721</v>
+        <v>2.2439212947151721</v>
       </c>
       <c r="E48" s="315">
-        <v>2.3132460938421024</v>
+        <v>2.3140366538421024</v>
       </c>
       <c r="F48" s="315">
-        <v>2.5041875413585819</v>
+        <v>2.5049781013585819</v>
       </c>
       <c r="G48" s="315">
-        <v>2.7994049698244576</v>
+        <v>2.8001955298244576</v>
       </c>
       <c r="H48" s="315">
-        <v>3.0890149866525158</v>
+        <v>3.0898055466525154</v>
       </c>
       <c r="I48" s="315">
-        <v>3.6545891418451655</v>
+        <v>3.6553797018451655</v>
       </c>
       <c r="J48" s="315">
-        <v>3.8805505543853749</v>
+        <v>3.8813411143853749</v>
       </c>
       <c r="K48" s="315">
         <v>0.2</v>
@@ -42177,31 +42177,31 @@
         <v>184</v>
       </c>
       <c r="B49" s="315">
-        <v>3.71188405</v>
+        <v>3.7146435999999996</v>
       </c>
       <c r="C49" s="315">
-        <v>3.8019236211981347</v>
+        <v>3.8046831711981342</v>
       </c>
       <c r="D49" s="315">
-        <v>3.8118601347151722</v>
+        <v>3.8146196847151717</v>
       </c>
       <c r="E49" s="315">
-        <v>3.8819754938421025</v>
+        <v>3.884735043842102</v>
       </c>
       <c r="F49" s="315">
-        <v>4.0729169413585815</v>
+        <v>4.0756764913585819</v>
       </c>
       <c r="G49" s="315">
-        <v>4.3681343698244577</v>
+        <v>4.3708939198244572</v>
       </c>
       <c r="H49" s="315">
-        <v>4.6577443866525154</v>
+        <v>4.6605039366525149</v>
       </c>
       <c r="I49" s="315">
-        <v>5.2233185418451651</v>
+        <v>5.2260780918451655</v>
       </c>
       <c r="J49" s="315">
-        <v>5.4492799543853749</v>
+        <v>5.4520395043853744</v>
       </c>
       <c r="K49" s="315">
         <v>0.2</v>
@@ -42218,31 +42218,31 @@
         <v>185</v>
       </c>
       <c r="B50" s="316">
-        <v>2.7609878790074882</v>
+        <v>2.7624831099863738</v>
       </c>
       <c r="C50" s="316">
-        <v>2.8510274502056228</v>
+        <v>2.8525226811845084</v>
       </c>
       <c r="D50" s="316">
-        <v>2.8609639637226603</v>
+        <v>2.8624591947015459</v>
       </c>
       <c r="E50" s="316">
-        <v>2.9310793228495906</v>
+        <v>2.9325745538284762</v>
       </c>
       <c r="F50" s="316">
-        <v>3.12202077036607</v>
+        <v>3.1235160013449557</v>
       </c>
       <c r="G50" s="316">
-        <v>3.4172381988319458</v>
+        <v>3.4187334298108314</v>
       </c>
       <c r="H50" s="316">
-        <v>3.7068482156600036</v>
+        <v>3.7083434466388896</v>
       </c>
       <c r="I50" s="316">
-        <v>4.2724223708526541</v>
+        <v>4.2739176018315392</v>
       </c>
       <c r="J50" s="316">
-        <v>4.498383783392863</v>
+        <v>4.4998790143717482</v>
       </c>
       <c r="K50" s="316">
         <v>0.2</v>
@@ -42259,31 +42259,31 @@
         <v>186</v>
       </c>
       <c r="B51" s="315">
-        <v>1.81017235</v>
+        <v>1.8108784199999999</v>
       </c>
       <c r="C51" s="315">
-        <v>1.9002119211981345</v>
+        <v>1.9009179911981344</v>
       </c>
       <c r="D51" s="315">
-        <v>1.910148434715172</v>
+        <v>1.9108545047151719</v>
       </c>
       <c r="E51" s="315">
-        <v>1.9802637938421024</v>
+        <v>1.9809698638421023</v>
       </c>
       <c r="F51" s="315">
-        <v>2.1712052413585816</v>
+        <v>2.1719113113585817</v>
       </c>
       <c r="G51" s="315">
-        <v>2.4664226698244578</v>
+        <v>2.4671287398244575</v>
       </c>
       <c r="H51" s="315">
-        <v>2.7560326866525156</v>
+        <v>2.7567387566525152</v>
       </c>
       <c r="I51" s="315">
-        <v>3.3216068418451652</v>
+        <v>3.3223129118451653</v>
       </c>
       <c r="J51" s="315">
-        <v>3.547568254385375</v>
+        <v>3.5482743243853747</v>
       </c>
       <c r="K51" s="315">
         <v>0.2</v>
@@ -42341,31 +42341,31 @@
         <v>188</v>
       </c>
       <c r="B53" s="316">
-        <v>1.8047942322445794</v>
+        <v>1.8048991075423631</v>
       </c>
       <c r="C53" s="316">
-        <v>1.8948338034427139</v>
+        <v>1.8949386787404976</v>
       </c>
       <c r="D53" s="316">
-        <v>1.9047703169597514</v>
+        <v>1.9048751922575351</v>
       </c>
       <c r="E53" s="316">
-        <v>1.9748856760866818</v>
+        <v>1.9749905513844654</v>
       </c>
       <c r="F53" s="316">
-        <v>2.1658271236031612</v>
+        <v>2.1659319989009447</v>
       </c>
       <c r="G53" s="316">
-        <v>2.4610445520690369</v>
+        <v>2.4611494273668209</v>
       </c>
       <c r="H53" s="316">
-        <v>2.7506545688970947</v>
+        <v>2.7507594441948786</v>
       </c>
       <c r="I53" s="316">
-        <v>3.3162287240897448</v>
+        <v>3.3163335993875283</v>
       </c>
       <c r="J53" s="316">
-        <v>3.5421901366299542</v>
+        <v>3.5422950119277381</v>
       </c>
       <c r="K53" s="316">
         <v>0.19626666666666665</v>
@@ -42604,31 +42604,31 @@
         <v>138</v>
       </c>
       <c r="B60" s="316">
-        <v>1.4609790724352274</v>
+        <v>1.4604764634708514</v>
       </c>
       <c r="C60" s="316">
-        <v>1.551018643633362</v>
+        <v>1.5505160346689859</v>
       </c>
       <c r="D60" s="316">
-        <v>1.5609551571503995</v>
+        <v>1.5604525481860234</v>
       </c>
       <c r="E60" s="316">
-        <v>1.6310705162773298</v>
+        <v>1.6305679073129538</v>
       </c>
       <c r="F60" s="316">
-        <v>1.8220119637938093</v>
+        <v>1.8215093548294332</v>
       </c>
       <c r="G60" s="316">
-        <v>2.1172293922596852</v>
+        <v>2.1167267832953089</v>
       </c>
       <c r="H60" s="316">
-        <v>2.406839409087743</v>
+        <v>2.4063368001233671</v>
       </c>
       <c r="I60" s="316">
-        <v>2.9724135642803926</v>
+        <v>2.9719109553160168</v>
       </c>
       <c r="J60" s="316">
-        <v>3.1983749768206025</v>
+        <v>3.1978723678562262</v>
       </c>
       <c r="K60" s="316">
         <v>0.16014822227825756</v>
@@ -43519,34 +43519,34 @@
         <v>98</v>
       </c>
       <c r="B14" s="315">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="C14" s="315">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="D14" s="315">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="E14" s="315">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="F14" s="315">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="G14" s="315">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="H14" s="315">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="I14" s="315">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="J14" s="315">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="K14" s="315">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="L14" s="287" t="s">
         <v>21</v>
@@ -43557,34 +43557,34 @@
         <v>99</v>
       </c>
       <c r="B15" s="315">
-        <v>22.07324087</v>
+        <v>22.07093236</v>
       </c>
       <c r="C15" s="315">
-        <v>22.07324087</v>
+        <v>22.07093236</v>
       </c>
       <c r="D15" s="315">
-        <v>21.92684097</v>
+        <v>21.92456025</v>
       </c>
       <c r="E15" s="315">
-        <v>21.59151201</v>
+        <v>21.58931356</v>
       </c>
       <c r="F15" s="315">
-        <v>20.89821512</v>
+        <v>20.89614773</v>
       </c>
       <c r="G15" s="315">
-        <v>20.70867074</v>
+        <v>20.70667668</v>
       </c>
       <c r="H15" s="315">
-        <v>20.36154192</v>
+        <v>20.359252450000003</v>
       </c>
       <c r="I15" s="315">
-        <v>11.944483120000001</v>
+        <v>11.94290155</v>
       </c>
       <c r="J15" s="315">
-        <v>7.3198922700000013</v>
+        <v>7.3188452400000008</v>
       </c>
       <c r="K15" s="315">
-        <v>18.716390320000002</v>
+        <v>18.71443675</v>
       </c>
       <c r="L15" s="287" t="s">
         <v>21</v>
@@ -43595,34 +43595,34 @@
         <v>100</v>
       </c>
       <c r="B16" s="315">
-        <v>24.99981667</v>
+        <v>24.99981441</v>
       </c>
       <c r="C16" s="315">
-        <v>24.99981667</v>
+        <v>24.99981441</v>
       </c>
       <c r="D16" s="315">
-        <v>24.99981667</v>
+        <v>24.99981441</v>
       </c>
       <c r="E16" s="315">
-        <v>24.99981667</v>
+        <v>24.99981441</v>
       </c>
       <c r="F16" s="315">
-        <v>24.99981667</v>
+        <v>24.99981441</v>
       </c>
       <c r="G16" s="315">
-        <v>24.99981667</v>
+        <v>24.99981441</v>
       </c>
       <c r="H16" s="315">
-        <v>24.99981667</v>
+        <v>24.99981441</v>
       </c>
       <c r="I16" s="315">
-        <v>24.99981667</v>
+        <v>24.99981441</v>
       </c>
       <c r="J16" s="315">
-        <v>24.99981667</v>
+        <v>24.99981441</v>
       </c>
       <c r="K16" s="315">
-        <v>24.99981667</v>
+        <v>24.99981441</v>
       </c>
       <c r="L16" s="287" t="s">
         <v>21</v>
@@ -43785,34 +43785,34 @@
         <v>106</v>
       </c>
       <c r="B21" s="315">
-        <v>17.9994451</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="C21" s="315">
-        <v>17.9994451</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="D21" s="315">
-        <v>17.9994451</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="E21" s="315">
-        <v>17.9994451</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="F21" s="315">
-        <v>17.9994451</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="G21" s="315">
-        <v>17.9994451</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="H21" s="315">
-        <v>17.9994451</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="I21" s="315">
-        <v>17.9994451</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="J21" s="315">
-        <v>17.9994451</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="K21" s="315">
-        <v>17.9994451</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="L21" s="287" t="s">
         <v>21</v>
@@ -43823,34 +43823,34 @@
         <v>107</v>
       </c>
       <c r="B22" s="315">
-        <v>9.9995784</v>
+        <v>9.9995767</v>
       </c>
       <c r="C22" s="315">
-        <v>9.9995784</v>
+        <v>9.9995767</v>
       </c>
       <c r="D22" s="315">
-        <v>9.9995784</v>
+        <v>9.9995767</v>
       </c>
       <c r="E22" s="315">
-        <v>9.9995784</v>
+        <v>9.9995767</v>
       </c>
       <c r="F22" s="315">
-        <v>9.9995784</v>
+        <v>9.9995767</v>
       </c>
       <c r="G22" s="315">
-        <v>9.9995784</v>
+        <v>9.9995767</v>
       </c>
       <c r="H22" s="315">
-        <v>9.9995784</v>
+        <v>9.9995767</v>
       </c>
       <c r="I22" s="315">
-        <v>9.9995784</v>
+        <v>9.9995767</v>
       </c>
       <c r="J22" s="315">
-        <v>9.9995784</v>
+        <v>9.9995767</v>
       </c>
       <c r="K22" s="315">
-        <v>9.9995784</v>
+        <v>9.9995767</v>
       </c>
       <c r="L22" s="287" t="s">
         <v>21</v>
@@ -43937,34 +43937,34 @@
         <v>110</v>
       </c>
       <c r="B25" s="316">
-        <v>14.681463824099271</v>
+        <v>14.680130913316249</v>
       </c>
       <c r="C25" s="316">
-        <v>14.681463824099271</v>
+        <v>14.680130913316249</v>
       </c>
       <c r="D25" s="316">
-        <v>14.596948861603392</v>
+        <v>14.595631993664714</v>
       </c>
       <c r="E25" s="316">
-        <v>14.403367346327887</v>
+        <v>14.402097971905015</v>
       </c>
       <c r="F25" s="316">
-        <v>14.00313510124534</v>
+        <v>14.001941386238798</v>
       </c>
       <c r="G25" s="316">
-        <v>13.893713331373878</v>
+        <v>13.892561948924939</v>
       </c>
       <c r="H25" s="316">
-        <v>13.693319893922492</v>
+        <v>13.691997974710409</v>
       </c>
       <c r="I25" s="316">
-        <v>8.8342495748333558</v>
+        <v>8.8333363180722078</v>
       </c>
       <c r="J25" s="316">
-        <v>6.1645269708798009</v>
+        <v>6.1639222978543806</v>
       </c>
       <c r="K25" s="316">
-        <v>12.743592976253581</v>
+        <v>12.742464968211531</v>
       </c>
       <c r="L25" s="317" t="s">
         <v>4</v>
@@ -44107,34 +44107,34 @@
         <v>115</v>
       </c>
       <c r="B30" s="315">
-        <v>7.7131487159175389</v>
+        <v>7.7129006030557807</v>
       </c>
       <c r="C30" s="315">
-        <v>7.7131487159175389</v>
+        <v>7.7129006030557807</v>
       </c>
       <c r="D30" s="315">
-        <v>6.99990593753436</v>
+        <v>6.99965340915117</v>
       </c>
       <c r="E30" s="315">
-        <v>6.0185211092886</v>
+        <v>6.01828494856104</v>
       </c>
       <c r="F30" s="315">
-        <v>5.19012455352466</v>
+        <v>5.18991243312045</v>
       </c>
       <c r="G30" s="315">
-        <v>4.78591956980598</v>
+        <v>4.78572273029911</v>
       </c>
       <c r="H30" s="315">
-        <v>2.78528595875505</v>
+        <v>2.78513698932902</v>
       </c>
       <c r="I30" s="315">
-        <v>2.2266321686499597</v>
+        <v>2.22650518910267</v>
       </c>
       <c r="J30" s="315">
-        <v>1.92252063622474</v>
+        <v>1.92240819288601</v>
       </c>
       <c r="K30" s="315">
-        <v>2.86959246988682</v>
+        <v>2.86944251203719</v>
       </c>
       <c r="L30" s="287" t="s">
         <v>21</v>
@@ -44183,34 +44183,34 @@
         <v>117</v>
       </c>
       <c r="B32" s="316">
-        <v>1.828509958142966</v>
+        <v>1.8284511395132235</v>
       </c>
       <c r="C32" s="316">
-        <v>1.828509958142966</v>
+        <v>1.8284511395132235</v>
       </c>
       <c r="D32" s="316">
-        <v>1.659425765567268</v>
+        <v>1.6593659001763121</v>
       </c>
       <c r="E32" s="316">
-        <v>1.4267747436163278</v>
+        <v>1.426718758407437</v>
       </c>
       <c r="F32" s="316">
-        <v>1.2303917349003459</v>
+        <v>1.2303414487868909</v>
       </c>
       <c r="G32" s="316">
-        <v>1.1345692809218086</v>
+        <v>1.1345226173591412</v>
       </c>
       <c r="H32" s="316">
-        <v>0.66029105614794881</v>
+        <v>0.66025574085856609</v>
       </c>
       <c r="I32" s="316">
-        <v>0.52785434891146044</v>
+        <v>0.52782424663089356</v>
       </c>
       <c r="J32" s="316">
-        <v>0.45576044979110836</v>
+        <v>0.45573379352242133</v>
       </c>
       <c r="K32" s="316">
-        <v>0.68027709567842021</v>
+        <v>0.68024154606937592</v>
       </c>
       <c r="L32" s="317" t="s">
         <v>4</v>
@@ -44486,34 +44486,34 @@
         <v>98</v>
       </c>
       <c r="B47" s="315">
-        <v>24.99965699</v>
+        <v>24.999655060000002</v>
       </c>
       <c r="C47" s="315">
-        <v>24.99965699</v>
+        <v>24.999655060000002</v>
       </c>
       <c r="D47" s="315">
-        <v>24.9996582</v>
+        <v>24.99965624</v>
       </c>
       <c r="E47" s="315">
-        <v>24.999663209999998</v>
+        <v>24.99966109</v>
       </c>
       <c r="F47" s="315">
-        <v>24.99966372</v>
+        <v>24.99966566</v>
       </c>
       <c r="G47" s="315">
-        <v>24.99966839</v>
+        <v>24.999665919999998</v>
       </c>
       <c r="H47" s="315">
-        <v>24.999677519999995</v>
+        <v>24.99967476</v>
       </c>
       <c r="I47" s="315">
-        <v>24.99968205</v>
+        <v>24.99967903</v>
       </c>
       <c r="J47" s="315">
-        <v>24.99969072</v>
+        <v>24.9996874</v>
       </c>
       <c r="K47" s="315">
-        <v>24.99967429</v>
+        <v>24.99967162</v>
       </c>
       <c r="L47" s="287" t="s">
         <v>21</v>
@@ -44524,34 +44524,34 @@
         <v>99</v>
       </c>
       <c r="B48" s="315">
-        <v>27.86932824</v>
+        <v>27.853658879999998</v>
       </c>
       <c r="C48" s="315">
-        <v>27.86869057</v>
+        <v>27.853021379999998</v>
       </c>
       <c r="D48" s="315">
-        <v>26.73672407</v>
+        <v>26.70347486</v>
       </c>
       <c r="E48" s="315">
-        <v>25.339716709999998</v>
+        <v>25.30682065</v>
       </c>
       <c r="F48" s="315">
-        <v>24.30941134</v>
+        <v>24.29354864</v>
       </c>
       <c r="G48" s="315">
-        <v>23.42456727</v>
+        <v>23.408573360000002</v>
       </c>
       <c r="H48" s="315">
-        <v>21.25622939</v>
+        <v>21.240589200000002</v>
       </c>
       <c r="I48" s="315">
-        <v>14.18166817</v>
+        <v>14.18633688</v>
       </c>
       <c r="J48" s="315">
-        <v>9.3093324999999982</v>
+        <v>9.30448183</v>
       </c>
       <c r="K48" s="315">
-        <v>24.42191605</v>
+        <v>24.40518466</v>
       </c>
       <c r="L48" s="287" t="s">
         <v>21</v>
@@ -44562,34 +44562,34 @@
         <v>100</v>
       </c>
       <c r="B49" s="315">
-        <v>24.99965699</v>
+        <v>24.99965506</v>
       </c>
       <c r="C49" s="315">
-        <v>24.99965699</v>
+        <v>24.99965506</v>
       </c>
       <c r="D49" s="315">
-        <v>24.9996582</v>
+        <v>24.999656239999997</v>
       </c>
       <c r="E49" s="315">
-        <v>24.99966321</v>
+        <v>24.99966109</v>
       </c>
       <c r="F49" s="315">
-        <v>24.99966372</v>
+        <v>24.99966566</v>
       </c>
       <c r="G49" s="315">
-        <v>24.999668389999997</v>
+        <v>24.999665919999998</v>
       </c>
       <c r="H49" s="315">
-        <v>24.99967752</v>
+        <v>24.999674760000005</v>
       </c>
       <c r="I49" s="315">
-        <v>24.99968205</v>
+        <v>24.999679030000003</v>
       </c>
       <c r="J49" s="315">
-        <v>24.99969072</v>
+        <v>24.9996874</v>
       </c>
       <c r="K49" s="315">
-        <v>24.99967429</v>
+        <v>24.99967162</v>
       </c>
       <c r="L49" s="287" t="s">
         <v>21</v>
@@ -44714,34 +44714,34 @@
         <v>104</v>
       </c>
       <c r="B53" s="315">
-        <v>1.21732031633403</v>
+        <v>1.21732026092437</v>
       </c>
       <c r="C53" s="315">
-        <v>1.21732031633403</v>
+        <v>1.21732026092437</v>
       </c>
       <c r="D53" s="315">
-        <v>1.21732031633403</v>
+        <v>1.21732026092437</v>
       </c>
       <c r="E53" s="315">
-        <v>1.21732031633403</v>
+        <v>1.21732026092437</v>
       </c>
       <c r="F53" s="315">
-        <v>1.21732031633403</v>
+        <v>1.21732026092437</v>
       </c>
       <c r="G53" s="315">
-        <v>1.21732031633403</v>
+        <v>1.21732026092437</v>
       </c>
       <c r="H53" s="315">
-        <v>1.21732031633403</v>
+        <v>1.21732026092437</v>
       </c>
       <c r="I53" s="315">
-        <v>1.21732031633403</v>
+        <v>1.21732026092437</v>
       </c>
       <c r="J53" s="315">
-        <v>1.21732031633403</v>
+        <v>1.21732026092437</v>
       </c>
       <c r="K53" s="315">
-        <v>1.21732031633403</v>
+        <v>1.21732026092437</v>
       </c>
       <c r="L53" s="287" t="s">
         <v>105</v>
@@ -44752,34 +44752,34 @@
         <v>106</v>
       </c>
       <c r="B54" s="315">
-        <v>17.99865397</v>
+        <v>17.99865157</v>
       </c>
       <c r="C54" s="315">
-        <v>17.99865397</v>
+        <v>17.99865157</v>
       </c>
       <c r="D54" s="315">
-        <v>17.99865397</v>
+        <v>17.99865157</v>
       </c>
       <c r="E54" s="315">
-        <v>17.99865397</v>
+        <v>17.99865157</v>
       </c>
       <c r="F54" s="315">
-        <v>17.99865397</v>
+        <v>17.99865157</v>
       </c>
       <c r="G54" s="315">
-        <v>17.99865397</v>
+        <v>17.99865157</v>
       </c>
       <c r="H54" s="315">
-        <v>17.99865397</v>
+        <v>17.99865157</v>
       </c>
       <c r="I54" s="315">
-        <v>17.99865397</v>
+        <v>17.99865157</v>
       </c>
       <c r="J54" s="315">
-        <v>17.99865397</v>
+        <v>17.99865157</v>
       </c>
       <c r="K54" s="315">
-        <v>17.99865397</v>
+        <v>17.99865157</v>
       </c>
       <c r="L54" s="287" t="s">
         <v>21</v>
@@ -44790,34 +44790,34 @@
         <v>107</v>
       </c>
       <c r="B55" s="315">
-        <v>9.99888989</v>
+        <v>9.99888796</v>
       </c>
       <c r="C55" s="315">
-        <v>9.99888989</v>
+        <v>9.99888796</v>
       </c>
       <c r="D55" s="315">
-        <v>9.99888989</v>
+        <v>9.99888796</v>
       </c>
       <c r="E55" s="315">
-        <v>9.99888989</v>
+        <v>9.99888796</v>
       </c>
       <c r="F55" s="315">
-        <v>9.99888989</v>
+        <v>9.99888796</v>
       </c>
       <c r="G55" s="315">
-        <v>9.99888989</v>
+        <v>9.99888796</v>
       </c>
       <c r="H55" s="315">
-        <v>9.99888989</v>
+        <v>9.99888796</v>
       </c>
       <c r="I55" s="315">
-        <v>9.99888989</v>
+        <v>9.99888796</v>
       </c>
       <c r="J55" s="315">
-        <v>9.99888989</v>
+        <v>9.99888796</v>
       </c>
       <c r="K55" s="315">
-        <v>9.99888989</v>
+        <v>9.99888796</v>
       </c>
       <c r="L55" s="287" t="s">
         <v>21</v>
@@ -44904,34 +44904,34 @@
         <v>110</v>
       </c>
       <c r="B58" s="316">
-        <v>18.131578407180122</v>
+        <v>18.122532420473803</v>
       </c>
       <c r="C58" s="316">
-        <v>18.131210287692774</v>
+        <v>18.122164399125488</v>
       </c>
       <c r="D58" s="316">
-        <v>17.477739201841192</v>
+        <v>17.458544571049185</v>
       </c>
       <c r="E58" s="316">
-        <v>16.671263204997746</v>
+        <v>16.65227243938017</v>
       </c>
       <c r="F58" s="316">
-        <v>16.076479890696028</v>
+        <v>16.067322393131583</v>
       </c>
       <c r="G58" s="316">
-        <v>15.565669805736224</v>
+        <v>15.556436445839495</v>
       </c>
       <c r="H58" s="316">
-        <v>14.313913763893027</v>
+        <v>14.3048845947961</v>
       </c>
       <c r="I58" s="316">
-        <v>10.229851830175278</v>
+        <v>10.232546746394105</v>
       </c>
       <c r="J58" s="316">
-        <v>7.4171092467625428</v>
+        <v>7.4143087275188995</v>
       </c>
       <c r="K58" s="316">
-        <v>16.141427832349759</v>
+        <v>16.131768728536127</v>
       </c>
       <c r="L58" s="317" t="s">
         <v>4</v>
@@ -45074,34 +45074,34 @@
         <v>115</v>
       </c>
       <c r="B63" s="315">
-        <v>11.853327877461602</v>
+        <v>11.8511499060226</v>
       </c>
       <c r="C63" s="315">
-        <v>11.530334995553798</v>
+        <v>11.524101745836699</v>
       </c>
       <c r="D63" s="315">
-        <v>9.8084114186499587</v>
+        <v>9.8082598679951509</v>
       </c>
       <c r="E63" s="315">
-        <v>8.25405818127729</v>
+        <v>8.25403855550525</v>
       </c>
       <c r="F63" s="315">
-        <v>7.58449996618432</v>
+        <v>7.58429825029911</v>
       </c>
       <c r="G63" s="315">
-        <v>7.17543324116411</v>
+        <v>7.17139910643492</v>
       </c>
       <c r="H63" s="315">
-        <v>6.3501048767340311</v>
+        <v>6.34967478775263</v>
       </c>
       <c r="I63" s="315">
-        <v>5.9036454077202904</v>
+        <v>5.9029361274454306</v>
       </c>
       <c r="J63" s="315">
-        <v>5.58989983181083</v>
+        <v>5.5857891272029105</v>
       </c>
       <c r="K63" s="315">
-        <v>7.95076532051738</v>
+        <v>7.94565026636217</v>
       </c>
       <c r="L63" s="287" t="s">
         <v>21</v>
@@ -45150,34 +45150,34 @@
         <v>117</v>
       </c>
       <c r="B65" s="316">
-        <v>2.8099974289804526</v>
+        <v>2.8094811103392021</v>
       </c>
       <c r="C65" s="316">
-        <v>2.7334274414526729</v>
+        <v>2.7319497622844</v>
       </c>
       <c r="D65" s="316">
-        <v>2.3252213347776927</v>
+        <v>2.3251854075718668</v>
       </c>
       <c r="E65" s="316">
-        <v>1.9567401246147964</v>
+        <v>1.9567354720505927</v>
       </c>
       <c r="F65" s="316">
-        <v>1.7980119697527799</v>
+        <v>1.7979641501763126</v>
       </c>
       <c r="G65" s="316">
-        <v>1.7010369718896139</v>
+        <v>1.7000806237370632</v>
       </c>
       <c r="H65" s="316">
-        <v>1.5053813209122262</v>
+        <v>1.5052793622939831</v>
       </c>
       <c r="I65" s="316">
-        <v>1.399541849243005</v>
+        <v>1.3993737044174008</v>
       </c>
       <c r="J65" s="316">
-        <v>1.325164065149482</v>
+        <v>1.3241895650344959</v>
       </c>
       <c r="K65" s="316">
-        <v>1.8848403030816405</v>
+        <v>1.8836277078363366</v>
       </c>
       <c r="L65" s="317" t="s">
         <v>4</v>
@@ -49054,7 +49054,7 @@
         <v>1.5955000000000001</v>
       </c>
       <c r="K12" s="323">
-        <v>59.136887496082736</v>
+        <v>59.218230648699468</v>
       </c>
     </row>
     <row r="13">
@@ -49062,34 +49062,34 @@
         <v>99</v>
       </c>
       <c r="B13" s="315">
-        <v>1.14380412</v>
+        <v>1.14448736</v>
       </c>
       <c r="C13" s="315">
-        <v>1.14380513</v>
+        <v>1.14448837</v>
       </c>
       <c r="D13" s="315">
-        <v>1.15480063</v>
+        <v>1.15224803</v>
       </c>
       <c r="E13" s="315">
-        <v>1.1554955800000002</v>
+        <v>1.15413839</v>
       </c>
       <c r="F13" s="315">
-        <v>1.1506498299999999</v>
+        <v>1.15143365</v>
       </c>
       <c r="G13" s="315">
-        <v>1.15047495</v>
+        <v>1.15129078</v>
       </c>
       <c r="H13" s="315">
-        <v>1.14710355</v>
+        <v>1.1479755</v>
       </c>
       <c r="I13" s="315">
-        <v>1.03454004</v>
+        <v>1.03619957</v>
       </c>
       <c r="J13" s="315">
-        <v>0.89137238000000008</v>
+        <v>0.89381801</v>
       </c>
       <c r="K13" s="323">
-        <v>71.778435534993562</v>
+        <v>71.8224874228471</v>
       </c>
     </row>
     <row r="14">
@@ -49124,7 +49124,7 @@
         <v>1.5955000000000001</v>
       </c>
       <c r="K14" s="323">
-        <v>59.136887496082736</v>
+        <v>59.218230648699468</v>
       </c>
     </row>
     <row r="15">
@@ -49299,7 +49299,7 @@
         <v>1.8900000000000001</v>
       </c>
       <c r="K19" s="323">
-        <v>66.999087830687827</v>
+        <v>66.999097354497351</v>
       </c>
     </row>
     <row r="20">
@@ -49412,34 +49412,34 @@
         <v>110</v>
       </c>
       <c r="B23" s="316">
-        <v>1.316398299883246</v>
+        <v>1.3167927264024968</v>
       </c>
       <c r="C23" s="316">
-        <v>1.3163988829445192</v>
+        <v>1.3167933094637703</v>
       </c>
       <c r="D23" s="316">
-        <v>1.3227464574314107</v>
+        <v>1.3212728710883397</v>
       </c>
       <c r="E23" s="316">
-        <v>1.323147643997703</v>
+        <v>1.3223641539683397</v>
       </c>
       <c r="F23" s="316">
-        <v>1.3203502487842196</v>
+        <v>1.3208027389696877</v>
       </c>
       <c r="G23" s="316">
-        <v>1.3202492925906615</v>
+        <v>1.320720261777478</v>
       </c>
       <c r="H23" s="316">
-        <v>1.3183030225142571</v>
+        <v>1.3188063891254931</v>
       </c>
       <c r="I23" s="316">
-        <v>1.2533214151084144</v>
+        <v>1.254279442509463</v>
       </c>
       <c r="J23" s="316">
-        <v>1.1706723872366542</v>
+        <v>1.1720842210406992</v>
       </c>
       <c r="K23" s="324">
-        <v>70.353864356444348</v>
+        <v>70.37780523848447</v>
       </c>
       <c r="L23" s="322"/>
       <c r="M23" s="322"/>
@@ -50836,40 +50836,40 @@
         <v>4000</v>
       </c>
       <c r="C8" s="318">
-        <v>4020.65942606718</v>
+        <v>4017.9879760957</v>
       </c>
       <c r="D8" s="318">
-        <v>4033.95832542882</v>
+        <v>4036.53170628451</v>
       </c>
       <c r="E8" s="318">
-        <v>4055.8413164010003</v>
+        <v>4055.84549371042</v>
       </c>
       <c r="F8" s="318">
-        <v>4074.25602747504</v>
+        <v>4074.26022080573</v>
       </c>
       <c r="G8" s="318">
-        <v>4094.59760095526</v>
+        <v>4092.1293926367402</v>
       </c>
       <c r="H8" s="318">
-        <v>4112.86992269227</v>
+        <v>4110.39679931319</v>
       </c>
       <c r="I8" s="318">
-        <v>4132.80793949774</v>
+        <v>4127.95295738133</v>
       </c>
       <c r="J8" s="318">
-        <v>4153.16647730934</v>
+        <v>4145.97199283364</v>
       </c>
       <c r="K8" s="318">
-        <v>4170.7208287043195</v>
+        <v>4163.51270205497</v>
       </c>
       <c r="L8" s="325">
-        <v>4190.0686806657595</v>
+        <v>4180.61255305207</v>
       </c>
       <c r="M8" s="325">
-        <v>4207.51320659966</v>
+        <v>4198.03997581561</v>
       </c>
       <c r="N8" s="325">
-        <v>4226.25221842053</v>
+        <v>4214.6362491027794</v>
       </c>
     </row>
     <row r="9">
@@ -50880,40 +50880,40 @@
         <v>15784</v>
       </c>
       <c r="C9" s="318">
-        <v>15865.5220952611</v>
+        <v>15854.9805536736</v>
       </c>
       <c r="D9" s="318">
-        <v>15917.9995521421</v>
+        <v>15928.1541129987</v>
       </c>
       <c r="E9" s="318">
-        <v>16004.3498345183</v>
+        <v>16004.3663181813</v>
       </c>
       <c r="F9" s="318">
-        <v>16077.0142844165</v>
+        <v>16077.0308312994</v>
       </c>
       <c r="G9" s="318">
-        <v>16157.2821333695</v>
+        <v>16147.542583344599</v>
       </c>
       <c r="H9" s="318">
-        <v>16229.384714943699</v>
+        <v>16219.6257700899</v>
       </c>
       <c r="I9" s="318">
-        <v>16308.0601292581</v>
+        <v>16288.902369826701</v>
       </c>
       <c r="J9" s="318">
-        <v>16388.3949194626</v>
+        <v>16360.005483721501</v>
       </c>
       <c r="K9" s="318">
-        <v>16457.6643900672</v>
+        <v>16429.2211223089</v>
       </c>
       <c r="L9" s="325">
-        <v>16534.0110139071</v>
+        <v>16496.6971343435</v>
       </c>
       <c r="M9" s="325">
-        <v>16602.8471132423</v>
+        <v>16565.4657445684</v>
       </c>
       <c r="N9" s="325">
-        <v>16676.7912538874</v>
+        <v>16630.954638959498</v>
       </c>
     </row>
     <row r="10">
@@ -50924,40 +50924,40 @@
         <v>19784</v>
       </c>
       <c r="C10" s="326">
-        <v>19886.1815213283</v>
+        <v>19872.968529769303</v>
       </c>
       <c r="D10" s="326">
-        <v>19951.9578775709</v>
+        <v>19964.685819283197</v>
       </c>
       <c r="E10" s="326">
-        <v>20060.191150919298</v>
+        <v>20060.211811891702</v>
       </c>
       <c r="F10" s="326">
-        <v>20151.2703118916</v>
+        <v>20151.291052105098</v>
       </c>
       <c r="G10" s="326">
-        <v>20251.879734324702</v>
+        <v>20239.6719759813</v>
       </c>
       <c r="H10" s="326">
-        <v>20342.254637635997</v>
+        <v>20330.0225694031</v>
       </c>
       <c r="I10" s="326">
-        <v>20440.8680687558</v>
+        <v>20416.855327208003</v>
       </c>
       <c r="J10" s="326">
-        <v>20541.561396772002</v>
+        <v>20505.9774765552</v>
       </c>
       <c r="K10" s="326">
-        <v>20628.3852187716</v>
+        <v>20592.7338243639</v>
       </c>
       <c r="L10" s="327">
-        <v>20724.0796945728</v>
+        <v>20677.3096873956</v>
       </c>
       <c r="M10" s="327">
-        <v>20810.3603198419</v>
+        <v>20763.505720384</v>
       </c>
       <c r="N10" s="327">
-        <v>20903.0434723079</v>
+        <v>20845.5908880623</v>
       </c>
     </row>
     <row r="11">
@@ -52617,40 +52617,40 @@
         <v>126904</v>
       </c>
       <c r="C60" s="326">
-        <v>127006.181521328</v>
+        <v>126992.968529769</v>
       </c>
       <c r="D60" s="326">
-        <v>127071.957877571</v>
+        <v>127084.685819283</v>
       </c>
       <c r="E60" s="326">
-        <v>127180.19115091901</v>
+        <v>127180.211811892</v>
       </c>
       <c r="F60" s="326">
-        <v>127271.270311892</v>
+        <v>127271.29105210499</v>
       </c>
       <c r="G60" s="326">
-        <v>127371.879734325</v>
+        <v>127359.671975981</v>
       </c>
       <c r="H60" s="326">
-        <v>127462.25463763601</v>
+        <v>127450.022569403</v>
       </c>
       <c r="I60" s="326">
-        <v>127560.868068756</v>
+        <v>127536.855327208</v>
       </c>
       <c r="J60" s="326">
-        <v>127661.561396772</v>
+        <v>127625.97747655501</v>
       </c>
       <c r="K60" s="326">
-        <v>127748.38521877199</v>
+        <v>127712.73382436401</v>
       </c>
       <c r="L60" s="327">
-        <v>127844.079694573</v>
+        <v>127797.309687396</v>
       </c>
       <c r="M60" s="327">
-        <v>127930.360319842</v>
+        <v>127883.505720384</v>
       </c>
       <c r="N60" s="327">
-        <v>128023.043472308</v>
+        <v>127965.590888062</v>
       </c>
     </row>
     <row r="61">

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Assumption_Report.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Assumption_Report.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 02/10/21 5:13:36 AM</t>
+    <t>Printed on: 03/14/21 5:11:59 AM</t>
   </si>
   <si>
     <t>Deposit Account Models</t>
@@ -1629,7 +1629,7 @@
     <t xml:space="preserve">The Gross loss table provides the base and general loss assumptions for the loans.  For more detailed information, refer to loan loss app online and THC articles about the credit models. </t>
   </si>
   <si>
-    <t>THC updated the bank's Gross Loss on 2/5/2021 10:44:50 AM, and enable credit OAS model for regulation reports.</t>
+    <t>THC updated the bank's Gross Loss on 8/14/2020 10:20:39 AM, and enable credit OAS model for regulation reports.</t>
   </si>
   <si>
     <t xml:space="preserve">Internal Credit Rating </t>
@@ -41139,31 +41139,31 @@
         <v>153</v>
       </c>
       <c r="B19" s="315">
-        <v>1.16430707047098</v>
+        <v>0.86310634133592912</v>
       </c>
       <c r="C19" s="315">
-        <v>1.2543466416691145</v>
+        <v>0.95314591253406356</v>
       </c>
       <c r="D19" s="315">
-        <v>1.264283155186152</v>
+        <v>0.96308242605110117</v>
       </c>
       <c r="E19" s="315">
-        <v>1.3343985143130823</v>
+        <v>1.0331977851780316</v>
       </c>
       <c r="F19" s="315">
-        <v>1.5253399618295618</v>
+        <v>1.2241392326945109</v>
       </c>
       <c r="G19" s="315">
-        <v>1.8205573902954375</v>
+        <v>1.5193566611603866</v>
       </c>
       <c r="H19" s="315">
-        <v>2.1101674071234955</v>
+        <v>1.8089666779884448</v>
       </c>
       <c r="I19" s="315">
-        <v>2.6757415623161451</v>
+        <v>2.3745408331810944</v>
       </c>
       <c r="J19" s="315">
-        <v>2.901702974856355</v>
+        <v>2.6005022457213038</v>
       </c>
       <c r="K19" s="315">
         <v>0.543451899757478</v>
@@ -41180,31 +41180,31 @@
         <v>155</v>
       </c>
       <c r="B20" s="316">
-        <v>1.16430707047098</v>
+        <v>0.86310634133592912</v>
       </c>
       <c r="C20" s="316">
-        <v>1.2543466416691145</v>
+        <v>0.95314591253406356</v>
       </c>
       <c r="D20" s="316">
-        <v>1.264283155186152</v>
+        <v>0.96308242605110117</v>
       </c>
       <c r="E20" s="316">
-        <v>1.3343985143130823</v>
+        <v>1.0331977851780316</v>
       </c>
       <c r="F20" s="316">
-        <v>1.5253399618295618</v>
+        <v>1.2241392326945109</v>
       </c>
       <c r="G20" s="316">
-        <v>1.8205573902954375</v>
+        <v>1.5193566611603866</v>
       </c>
       <c r="H20" s="316">
-        <v>2.1101674071234955</v>
+        <v>1.8089666779884448</v>
       </c>
       <c r="I20" s="316">
-        <v>2.6757415623161451</v>
+        <v>2.3745408331810944</v>
       </c>
       <c r="J20" s="316">
-        <v>2.901702974856355</v>
+        <v>2.6005022457213038</v>
       </c>
       <c r="K20" s="316">
         <v>0.543451899757478</v>
@@ -41320,31 +41320,31 @@
         <v>159</v>
       </c>
       <c r="B24" s="316">
-        <v>1.0047690228379254</v>
+        <v>0.751990568953568</v>
       </c>
       <c r="C24" s="316">
-        <v>1.09480859403606</v>
+        <v>0.84203014015170241</v>
       </c>
       <c r="D24" s="316">
-        <v>1.1047451075530974</v>
+        <v>0.85196665366874</v>
       </c>
       <c r="E24" s="316">
-        <v>1.1748604666800278</v>
+        <v>0.92208201279567037</v>
       </c>
       <c r="F24" s="316">
-        <v>1.3658019141965072</v>
+        <v>1.1130234603121498</v>
       </c>
       <c r="G24" s="316">
-        <v>1.6610193426623829</v>
+        <v>1.4082408887780256</v>
       </c>
       <c r="H24" s="316">
-        <v>1.9506293594904409</v>
+        <v>1.6978509056060835</v>
       </c>
       <c r="I24" s="316">
-        <v>2.5162035146830908</v>
+        <v>2.2634250607987334</v>
       </c>
       <c r="J24" s="316">
-        <v>2.7421649272233</v>
+        <v>2.4893864733389428</v>
       </c>
       <c r="K24" s="316">
         <v>0.4585607094133699</v>
@@ -41361,31 +41361,31 @@
         <v>160</v>
       </c>
       <c r="B25" s="316">
-        <v>0.28612102079371154</v>
+        <v>0.2170541818467791</v>
       </c>
       <c r="C25" s="316">
-        <v>0.376160591991846</v>
+        <v>0.30709375304491354</v>
       </c>
       <c r="D25" s="316">
-        <v>0.38609710550888365</v>
+        <v>0.31703026656195121</v>
       </c>
       <c r="E25" s="316">
-        <v>0.456212464635814</v>
+        <v>0.38714562568888156</v>
       </c>
       <c r="F25" s="316">
-        <v>0.64715391215229334</v>
+        <v>0.5780870732053609</v>
       </c>
       <c r="G25" s="316">
-        <v>0.94237134061816907</v>
+        <v>0.87330450167123663</v>
       </c>
       <c r="H25" s="316">
-        <v>1.2319813574462271</v>
+        <v>1.1629145184992946</v>
       </c>
       <c r="I25" s="316">
-        <v>1.7975555126388769</v>
+        <v>1.7284886736919445</v>
       </c>
       <c r="J25" s="316">
-        <v>2.0235169251790865</v>
+        <v>1.9544500862321539</v>
       </c>
       <c r="K25" s="316">
         <v>0.12883288616328104</v>
@@ -41453,31 +41453,31 @@
         <v>164</v>
       </c>
       <c r="B29" s="315">
-        <v>1.99604356</v>
+        <v>1.98362744</v>
       </c>
       <c r="C29" s="315">
-        <v>2.0860831311981345</v>
+        <v>2.0736670111981343</v>
       </c>
       <c r="D29" s="315">
-        <v>2.096019644715172</v>
+        <v>2.0836035247151723</v>
       </c>
       <c r="E29" s="315">
-        <v>2.1661350038421023</v>
+        <v>2.1537188838421026</v>
       </c>
       <c r="F29" s="315">
-        <v>2.3570764513585818</v>
+        <v>2.3446603313585817</v>
       </c>
       <c r="G29" s="315">
-        <v>2.6522938798244575</v>
+        <v>2.6398777598244578</v>
       </c>
       <c r="H29" s="315">
-        <v>2.9419038966525157</v>
+        <v>2.9294877766525156</v>
       </c>
       <c r="I29" s="315">
-        <v>3.5074780518451654</v>
+        <v>3.4950619318451652</v>
       </c>
       <c r="J29" s="315">
-        <v>3.7334394643853748</v>
+        <v>3.7210233443853751</v>
       </c>
       <c r="K29" s="315">
         <v>0.2</v>
@@ -41494,31 +41494,31 @@
         <v>165</v>
       </c>
       <c r="B30" s="315">
-        <v>1.99604356</v>
+        <v>1.98362744</v>
       </c>
       <c r="C30" s="315">
-        <v>2.0860831311981345</v>
+        <v>2.0736670111981343</v>
       </c>
       <c r="D30" s="315">
-        <v>2.096019644715172</v>
+        <v>2.0836035247151723</v>
       </c>
       <c r="E30" s="315">
-        <v>2.1661350038421023</v>
+        <v>2.1537188838421026</v>
       </c>
       <c r="F30" s="315">
-        <v>2.3570764513585818</v>
+        <v>2.3446603313585817</v>
       </c>
       <c r="G30" s="315">
-        <v>2.6522938798244575</v>
+        <v>2.6398777598244578</v>
       </c>
       <c r="H30" s="315">
-        <v>2.9419038966525157</v>
+        <v>2.9294877766525156</v>
       </c>
       <c r="I30" s="315">
-        <v>3.5074780518451654</v>
+        <v>3.4950619318451652</v>
       </c>
       <c r="J30" s="315">
-        <v>3.7334394643853748</v>
+        <v>3.7210233443853751</v>
       </c>
       <c r="K30" s="315">
         <v>0.2</v>
@@ -41535,31 +41535,31 @@
         <v>166</v>
       </c>
       <c r="B31" s="316">
-        <v>1.99604356</v>
+        <v>1.98362744</v>
       </c>
       <c r="C31" s="316">
-        <v>2.0860831311981345</v>
+        <v>2.0736670111981343</v>
       </c>
       <c r="D31" s="316">
-        <v>2.096019644715172</v>
+        <v>2.0836035247151723</v>
       </c>
       <c r="E31" s="316">
-        <v>2.1661350038421023</v>
+        <v>2.1537188838421026</v>
       </c>
       <c r="F31" s="316">
-        <v>2.3570764513585818</v>
+        <v>2.3446603313585817</v>
       </c>
       <c r="G31" s="316">
-        <v>2.6522938798244575</v>
+        <v>2.6398777598244578</v>
       </c>
       <c r="H31" s="316">
-        <v>2.9419038966525157</v>
+        <v>2.9294877766525156</v>
       </c>
       <c r="I31" s="316">
-        <v>3.5074780518451654</v>
+        <v>3.4950619318451652</v>
       </c>
       <c r="J31" s="316">
-        <v>3.7334394643853748</v>
+        <v>3.7210233443853751</v>
       </c>
       <c r="K31" s="316">
         <v>0.2</v>
@@ -41576,31 +41576,31 @@
         <v>167</v>
       </c>
       <c r="B32" s="315">
-        <v>1.7218547000000002</v>
+        <v>1.7198654</v>
       </c>
       <c r="C32" s="315">
-        <v>1.8118942711981347</v>
+        <v>1.8099049711981345</v>
       </c>
       <c r="D32" s="315">
-        <v>1.8218307847151722</v>
+        <v>1.819841484715172</v>
       </c>
       <c r="E32" s="315">
-        <v>1.8919461438421026</v>
+        <v>1.8899568438421024</v>
       </c>
       <c r="F32" s="315">
-        <v>2.082887591358582</v>
+        <v>2.0808982913585821</v>
       </c>
       <c r="G32" s="315">
-        <v>2.3781050198244578</v>
+        <v>2.3761157198244574</v>
       </c>
       <c r="H32" s="315">
-        <v>2.667715036652516</v>
+        <v>2.6657257366525156</v>
       </c>
       <c r="I32" s="315">
-        <v>3.2332891918451656</v>
+        <v>3.2312998918451656</v>
       </c>
       <c r="J32" s="315">
-        <v>3.459250604385375</v>
+        <v>3.4572613043853746</v>
       </c>
       <c r="K32" s="315">
         <v>0.2</v>
@@ -41692,31 +41692,31 @@
         <v>171</v>
       </c>
       <c r="B36" s="315">
-        <v>1.7034022400000004</v>
+        <v>1.69882277</v>
       </c>
       <c r="C36" s="315">
-        <v>1.793441811198135</v>
+        <v>1.7888623411981346</v>
       </c>
       <c r="D36" s="315">
-        <v>1.8033783247151725</v>
+        <v>1.7987988547151721</v>
       </c>
       <c r="E36" s="315">
-        <v>1.8734936838421028</v>
+        <v>1.8689142138421024</v>
       </c>
       <c r="F36" s="315">
-        <v>2.0644351313585823</v>
+        <v>2.0598556613585819</v>
       </c>
       <c r="G36" s="315">
-        <v>2.359652559824458</v>
+        <v>2.3550730898244576</v>
       </c>
       <c r="H36" s="315">
-        <v>2.6492625766525162</v>
+        <v>2.6446831066525158</v>
       </c>
       <c r="I36" s="315">
-        <v>3.2148367318451658</v>
+        <v>3.2102572618451655</v>
       </c>
       <c r="J36" s="315">
-        <v>3.4407981443853752</v>
+        <v>3.4362186743853749</v>
       </c>
       <c r="K36" s="315">
         <v>0.2</v>
@@ -41774,31 +41774,31 @@
         <v>173</v>
       </c>
       <c r="B38" s="316">
-        <v>1.707940597190601</v>
+        <v>1.7034132390377661</v>
       </c>
       <c r="C38" s="316">
-        <v>1.7979801683887355</v>
+        <v>1.7934528102359006</v>
       </c>
       <c r="D38" s="316">
-        <v>1.807916681905773</v>
+        <v>1.8033893237529381</v>
       </c>
       <c r="E38" s="316">
-        <v>1.8780320410327034</v>
+        <v>1.8735046828798685</v>
       </c>
       <c r="F38" s="316">
-        <v>2.0689734885491831</v>
+        <v>2.0644461303963482</v>
       </c>
       <c r="G38" s="316">
-        <v>2.3641909170150583</v>
+        <v>2.3596635588622235</v>
       </c>
       <c r="H38" s="316">
-        <v>2.6538009338431165</v>
+        <v>2.6492735756902817</v>
       </c>
       <c r="I38" s="316">
-        <v>3.2193750890357666</v>
+        <v>3.2148477308829317</v>
       </c>
       <c r="J38" s="316">
-        <v>3.4453365015759756</v>
+        <v>3.4408091434231407</v>
       </c>
       <c r="K38" s="316">
         <v>0.2</v>
@@ -41815,31 +41815,31 @@
         <v>174</v>
       </c>
       <c r="B39" s="316">
-        <v>1.7199492537722083</v>
+        <v>1.7155598607662543</v>
       </c>
       <c r="C39" s="316">
-        <v>1.8099888249703429</v>
+        <v>1.8055994319643889</v>
       </c>
       <c r="D39" s="316">
-        <v>1.8199253384873804</v>
+        <v>1.8155359454814264</v>
       </c>
       <c r="E39" s="316">
-        <v>1.8900406976143107</v>
+        <v>1.8856513046083567</v>
       </c>
       <c r="F39" s="316">
-        <v>2.08098214513079</v>
+        <v>2.076592752124836</v>
       </c>
       <c r="G39" s="316">
-        <v>2.3761995735966659</v>
+        <v>2.3718101805907121</v>
       </c>
       <c r="H39" s="316">
-        <v>2.6658095904247237</v>
+        <v>2.66142019741877</v>
       </c>
       <c r="I39" s="316">
-        <v>3.2313837456173737</v>
+        <v>3.2269943526114195</v>
       </c>
       <c r="J39" s="316">
-        <v>3.4573451581575831</v>
+        <v>3.4529557651516294</v>
       </c>
       <c r="K39" s="316">
         <v>0.2</v>
@@ -41873,31 +41873,31 @@
         <v>176</v>
       </c>
       <c r="B41" s="315">
-        <v>1.7218547000000002</v>
+        <v>1.7198654</v>
       </c>
       <c r="C41" s="315">
-        <v>1.8118942711981347</v>
+        <v>1.8099049711981345</v>
       </c>
       <c r="D41" s="315">
-        <v>1.8218307847151722</v>
+        <v>1.819841484715172</v>
       </c>
       <c r="E41" s="315">
-        <v>1.8919461438421026</v>
+        <v>1.8899568438421024</v>
       </c>
       <c r="F41" s="315">
-        <v>2.082887591358582</v>
+        <v>2.0808982913585821</v>
       </c>
       <c r="G41" s="315">
-        <v>2.3781050198244578</v>
+        <v>2.3761157198244574</v>
       </c>
       <c r="H41" s="315">
-        <v>2.667715036652516</v>
+        <v>2.6657257366525156</v>
       </c>
       <c r="I41" s="315">
-        <v>3.2332891918451656</v>
+        <v>3.2312998918451656</v>
       </c>
       <c r="J41" s="315">
-        <v>3.459250604385375</v>
+        <v>3.4572613043853746</v>
       </c>
       <c r="K41" s="315">
         <v>0.2</v>
@@ -41914,31 +41914,31 @@
         <v>177</v>
       </c>
       <c r="B42" s="315">
-        <v>1.7218547000000002</v>
+        <v>1.7198654</v>
       </c>
       <c r="C42" s="315">
-        <v>1.8118942711981347</v>
+        <v>1.8099049711981345</v>
       </c>
       <c r="D42" s="315">
-        <v>1.8218307847151722</v>
+        <v>1.819841484715172</v>
       </c>
       <c r="E42" s="315">
-        <v>1.8919461438421026</v>
+        <v>1.8899568438421024</v>
       </c>
       <c r="F42" s="315">
-        <v>2.082887591358582</v>
+        <v>2.0808982913585821</v>
       </c>
       <c r="G42" s="315">
-        <v>2.3781050198244578</v>
+        <v>2.3761157198244574</v>
       </c>
       <c r="H42" s="315">
-        <v>2.667715036652516</v>
+        <v>2.6657257366525156</v>
       </c>
       <c r="I42" s="315">
-        <v>3.2332891918451656</v>
+        <v>3.2312998918451656</v>
       </c>
       <c r="J42" s="315">
-        <v>3.459250604385375</v>
+        <v>3.4572613043853746</v>
       </c>
       <c r="K42" s="315">
         <v>0.2</v>
@@ -41955,31 +41955,31 @@
         <v>178</v>
       </c>
       <c r="B43" s="316">
-        <v>1.7218547000000004</v>
+        <v>1.7198654</v>
       </c>
       <c r="C43" s="316">
-        <v>1.811894271198135</v>
+        <v>1.8099049711981345</v>
       </c>
       <c r="D43" s="316">
-        <v>1.8218307847151725</v>
+        <v>1.819841484715172</v>
       </c>
       <c r="E43" s="316">
-        <v>1.8919461438421028</v>
+        <v>1.8899568438421024</v>
       </c>
       <c r="F43" s="316">
-        <v>2.082887591358582</v>
+        <v>2.0808982913585821</v>
       </c>
       <c r="G43" s="316">
-        <v>2.3781050198244582</v>
+        <v>2.3761157198244574</v>
       </c>
       <c r="H43" s="316">
-        <v>2.667715036652516</v>
+        <v>2.6657257366525156</v>
       </c>
       <c r="I43" s="316">
-        <v>3.2332891918451656</v>
+        <v>3.2312998918451656</v>
       </c>
       <c r="J43" s="316">
-        <v>3.4592506043853755</v>
+        <v>3.4572613043853746</v>
       </c>
       <c r="K43" s="316">
         <v>0.2</v>
@@ -41996,31 +41996,31 @@
         <v>179</v>
       </c>
       <c r="B44" s="316">
-        <v>1.7355927386681396</v>
+        <v>1.7311885351733152</v>
       </c>
       <c r="C44" s="316">
-        <v>1.8256323098662741</v>
+        <v>1.8212281063714497</v>
       </c>
       <c r="D44" s="316">
-        <v>1.8355688233833116</v>
+        <v>1.8311646198884872</v>
       </c>
       <c r="E44" s="316">
-        <v>1.905684182510242</v>
+        <v>1.9012799790154176</v>
       </c>
       <c r="F44" s="316">
-        <v>2.0966256300267214</v>
+        <v>2.0922214265318972</v>
       </c>
       <c r="G44" s="316">
-        <v>2.3918430584925972</v>
+        <v>2.3874388549977725</v>
       </c>
       <c r="H44" s="316">
-        <v>2.6814530753206549</v>
+        <v>2.6770488718258307</v>
       </c>
       <c r="I44" s="316">
-        <v>3.247027230513305</v>
+        <v>3.2426230270184808</v>
       </c>
       <c r="J44" s="316">
-        <v>3.4729886430535144</v>
+        <v>3.46858443955869</v>
       </c>
       <c r="K44" s="316">
         <v>0.2</v>
@@ -42037,31 +42037,31 @@
         <v>180</v>
       </c>
       <c r="B45" s="315">
-        <v>1.72002399</v>
+        <v>1.71805044</v>
       </c>
       <c r="C45" s="315">
-        <v>1.8100635611981346</v>
+        <v>1.8080900111981346</v>
       </c>
       <c r="D45" s="315">
-        <v>1.8200000747151721</v>
+        <v>1.8180265247151721</v>
       </c>
       <c r="E45" s="315">
-        <v>1.8901154338421025</v>
+        <v>1.8881418838421025</v>
       </c>
       <c r="F45" s="315">
-        <v>2.0810568813585819</v>
+        <v>2.0790833313585821</v>
       </c>
       <c r="G45" s="315">
-        <v>2.3762743098244576</v>
+        <v>2.3743007598244574</v>
       </c>
       <c r="H45" s="315">
-        <v>2.6658843266525158</v>
+        <v>2.6639107766525156</v>
       </c>
       <c r="I45" s="315">
-        <v>3.2314584818451655</v>
+        <v>3.2294849318451657</v>
       </c>
       <c r="J45" s="315">
-        <v>3.4574198943853749</v>
+        <v>3.4554463443853747</v>
       </c>
       <c r="K45" s="315">
         <v>0.2</v>
@@ -42078,31 +42078,31 @@
         <v>181</v>
       </c>
       <c r="B46" s="315">
-        <v>1.55323439305312</v>
+        <v>1.5605250487314897</v>
       </c>
       <c r="C46" s="315">
-        <v>1.6432739642512546</v>
+        <v>1.6505646199296242</v>
       </c>
       <c r="D46" s="315">
-        <v>1.6532104777682921</v>
+        <v>1.6605011334466617</v>
       </c>
       <c r="E46" s="315">
-        <v>1.7233258368952225</v>
+        <v>1.7306164925735921</v>
       </c>
       <c r="F46" s="315">
-        <v>1.9142672844117019</v>
+        <v>1.9215579400900715</v>
       </c>
       <c r="G46" s="315">
-        <v>2.2094847128775776</v>
+        <v>2.2167753685559473</v>
       </c>
       <c r="H46" s="315">
-        <v>2.4990947297056358</v>
+        <v>2.5063853853840055</v>
       </c>
       <c r="I46" s="315">
-        <v>3.0646688848982855</v>
+        <v>3.0719595405766551</v>
       </c>
       <c r="J46" s="315">
-        <v>3.2906302974384949</v>
+        <v>3.2979209531168645</v>
       </c>
       <c r="K46" s="315">
         <v>0.155672268907563</v>
@@ -42136,31 +42136,31 @@
         <v>183</v>
       </c>
       <c r="B48" s="315">
-        <v>2.14394521</v>
+        <v>2.14009709</v>
       </c>
       <c r="C48" s="315">
-        <v>2.2339847811981346</v>
+        <v>2.2301366611981344</v>
       </c>
       <c r="D48" s="315">
-        <v>2.2439212947151721</v>
+        <v>2.2400731747151719</v>
       </c>
       <c r="E48" s="315">
-        <v>2.3140366538421024</v>
+        <v>2.3101885338421022</v>
       </c>
       <c r="F48" s="315">
-        <v>2.5049781013585819</v>
+        <v>2.5011299813585817</v>
       </c>
       <c r="G48" s="315">
-        <v>2.8001955298244576</v>
+        <v>2.7963474098244574</v>
       </c>
       <c r="H48" s="315">
-        <v>3.0898055466525154</v>
+        <v>3.0859574266525156</v>
       </c>
       <c r="I48" s="315">
-        <v>3.6553797018451655</v>
+        <v>3.6515315818451652</v>
       </c>
       <c r="J48" s="315">
-        <v>3.8813411143853749</v>
+        <v>3.8774929943853746</v>
       </c>
       <c r="K48" s="315">
         <v>0.2</v>
@@ -42177,31 +42177,31 @@
         <v>184</v>
       </c>
       <c r="B49" s="315">
-        <v>3.7146435999999996</v>
+        <v>3.7357711699999996</v>
       </c>
       <c r="C49" s="315">
-        <v>3.8046831711981342</v>
+        <v>3.8258107411981341</v>
       </c>
       <c r="D49" s="315">
-        <v>3.8146196847151717</v>
+        <v>3.8357472547151716</v>
       </c>
       <c r="E49" s="315">
-        <v>3.884735043842102</v>
+        <v>3.905862613842102</v>
       </c>
       <c r="F49" s="315">
-        <v>4.0756764913585819</v>
+        <v>4.096804061358581</v>
       </c>
       <c r="G49" s="315">
-        <v>4.3708939198244572</v>
+        <v>4.3920214898244572</v>
       </c>
       <c r="H49" s="315">
-        <v>4.6605039366525149</v>
+        <v>4.6816315066525149</v>
       </c>
       <c r="I49" s="315">
-        <v>5.2260780918451655</v>
+        <v>5.2472056618451646</v>
       </c>
       <c r="J49" s="315">
-        <v>5.4520395043853744</v>
+        <v>5.4731670743853744</v>
       </c>
       <c r="K49" s="315">
         <v>0.2</v>
@@ -42218,31 +42218,31 @@
         <v>185</v>
       </c>
       <c r="B50" s="316">
-        <v>2.7624831099863738</v>
+        <v>2.7683124075611607</v>
       </c>
       <c r="C50" s="316">
-        <v>2.8525226811845084</v>
+        <v>2.8583519787592953</v>
       </c>
       <c r="D50" s="316">
-        <v>2.8624591947015459</v>
+        <v>2.8682884922763328</v>
       </c>
       <c r="E50" s="316">
-        <v>2.9325745538284762</v>
+        <v>2.9384038514032631</v>
       </c>
       <c r="F50" s="316">
-        <v>3.1235160013449557</v>
+        <v>3.1293452989197426</v>
       </c>
       <c r="G50" s="316">
-        <v>3.4187334298108314</v>
+        <v>3.4245627273856183</v>
       </c>
       <c r="H50" s="316">
-        <v>3.7083434466388896</v>
+        <v>3.714172744213676</v>
       </c>
       <c r="I50" s="316">
-        <v>4.2739176018315392</v>
+        <v>4.2797468994063266</v>
       </c>
       <c r="J50" s="316">
-        <v>4.4998790143717482</v>
+        <v>4.5057083119465355</v>
       </c>
       <c r="K50" s="316">
         <v>0.2</v>
@@ -42259,31 +42259,31 @@
         <v>186</v>
       </c>
       <c r="B51" s="315">
-        <v>1.8108784199999999</v>
+        <v>1.82029418</v>
       </c>
       <c r="C51" s="315">
-        <v>1.9009179911981344</v>
+        <v>1.9103337511981346</v>
       </c>
       <c r="D51" s="315">
-        <v>1.9108545047151719</v>
+        <v>1.9202702647151722</v>
       </c>
       <c r="E51" s="315">
-        <v>1.9809698638421023</v>
+        <v>1.9903856238421025</v>
       </c>
       <c r="F51" s="315">
-        <v>2.1719113113585817</v>
+        <v>2.1813270713585817</v>
       </c>
       <c r="G51" s="315">
-        <v>2.4671287398244575</v>
+        <v>2.4765444998244579</v>
       </c>
       <c r="H51" s="315">
-        <v>2.7567387566525152</v>
+        <v>2.7661545166525157</v>
       </c>
       <c r="I51" s="315">
-        <v>3.3223129118451653</v>
+        <v>3.3317286718451653</v>
       </c>
       <c r="J51" s="315">
-        <v>3.5482743243853747</v>
+        <v>3.5576900843853752</v>
       </c>
       <c r="K51" s="315">
         <v>0.2</v>
@@ -42341,31 +42341,31 @@
         <v>188</v>
       </c>
       <c r="B53" s="316">
-        <v>1.8048991075423631</v>
+        <v>1.8025827879504872</v>
       </c>
       <c r="C53" s="316">
-        <v>1.8949386787404976</v>
+        <v>1.8926223591486218</v>
       </c>
       <c r="D53" s="316">
-        <v>1.9048751922575351</v>
+        <v>1.9025588726656593</v>
       </c>
       <c r="E53" s="316">
-        <v>1.9749905513844654</v>
+        <v>1.9726742317925896</v>
       </c>
       <c r="F53" s="316">
-        <v>2.1659319989009447</v>
+        <v>2.1636156793090691</v>
       </c>
       <c r="G53" s="316">
-        <v>2.4611494273668209</v>
+        <v>2.4588331077749448</v>
       </c>
       <c r="H53" s="316">
-        <v>2.7507594441948786</v>
+        <v>2.7484431246030026</v>
       </c>
       <c r="I53" s="316">
-        <v>3.3163335993875283</v>
+        <v>3.3140172797956526</v>
       </c>
       <c r="J53" s="316">
-        <v>3.5422950119277381</v>
+        <v>3.539978692335862</v>
       </c>
       <c r="K53" s="316">
         <v>0.19626666666666665</v>
@@ -42604,31 +42604,31 @@
         <v>138</v>
       </c>
       <c r="B60" s="316">
-        <v>1.4604764634708514</v>
+        <v>1.4556730286612847</v>
       </c>
       <c r="C60" s="316">
-        <v>1.5505160346689859</v>
+        <v>1.5457125998594192</v>
       </c>
       <c r="D60" s="316">
-        <v>1.5604525481860234</v>
+        <v>1.5556491133764567</v>
       </c>
       <c r="E60" s="316">
-        <v>1.6305679073129538</v>
+        <v>1.6257644725033871</v>
       </c>
       <c r="F60" s="316">
-        <v>1.8215093548294332</v>
+        <v>1.8167059200198665</v>
       </c>
       <c r="G60" s="316">
-        <v>2.1167267832953089</v>
+        <v>2.1119233484857425</v>
       </c>
       <c r="H60" s="316">
-        <v>2.4063368001233671</v>
+        <v>2.4015333653138002</v>
       </c>
       <c r="I60" s="316">
-        <v>2.9719109553160168</v>
+        <v>2.96710752050645</v>
       </c>
       <c r="J60" s="316">
-        <v>3.1978723678562262</v>
+        <v>3.1930689330466597</v>
       </c>
       <c r="K60" s="316">
         <v>0.16014822227825756</v>
@@ -43557,34 +43557,34 @@
         <v>99</v>
       </c>
       <c r="B15" s="315">
-        <v>22.07093236</v>
+        <v>22.070941069999996</v>
       </c>
       <c r="C15" s="315">
-        <v>22.07093236</v>
+        <v>22.070941069999996</v>
       </c>
       <c r="D15" s="315">
-        <v>21.92456025</v>
+        <v>21.92456888</v>
       </c>
       <c r="E15" s="315">
-        <v>21.58931356</v>
+        <v>21.58932194</v>
       </c>
       <c r="F15" s="315">
-        <v>20.89614773</v>
+        <v>20.896155699999998</v>
       </c>
       <c r="G15" s="315">
-        <v>20.70667668</v>
+        <v>20.706684380000002</v>
       </c>
       <c r="H15" s="315">
-        <v>20.359252450000003</v>
+        <v>20.359261099999998</v>
       </c>
       <c r="I15" s="315">
-        <v>11.94290155</v>
+        <v>11.942907329999999</v>
       </c>
       <c r="J15" s="315">
-        <v>7.3188452400000008</v>
+        <v>7.3188489999999993</v>
       </c>
       <c r="K15" s="315">
-        <v>18.71443675</v>
+        <v>18.71444414</v>
       </c>
       <c r="L15" s="287" t="s">
         <v>21</v>
@@ -43937,34 +43937,34 @@
         <v>110</v>
       </c>
       <c r="B25" s="316">
-        <v>14.680130913316249</v>
+        <v>14.680135941498124</v>
       </c>
       <c r="C25" s="316">
-        <v>14.680130913316249</v>
+        <v>14.680135941498124</v>
       </c>
       <c r="D25" s="316">
-        <v>14.595631993664714</v>
+        <v>14.595636975663517</v>
       </c>
       <c r="E25" s="316">
-        <v>14.402097971905015</v>
+        <v>14.402102809581722</v>
       </c>
       <c r="F25" s="316">
-        <v>14.001941386238798</v>
+        <v>14.001945987227259</v>
       </c>
       <c r="G25" s="316">
-        <v>13.892561948924939</v>
+        <v>13.892566394045538</v>
       </c>
       <c r="H25" s="316">
-        <v>13.691997974710409</v>
+        <v>13.692002968254977</v>
       </c>
       <c r="I25" s="316">
-        <v>8.8333363180722078</v>
+        <v>8.833339654799099</v>
       </c>
       <c r="J25" s="316">
-        <v>6.1639222978543806</v>
+        <v>6.163924468458724</v>
       </c>
       <c r="K25" s="316">
-        <v>12.742464968211531</v>
+        <v>12.742469234372731</v>
       </c>
       <c r="L25" s="317" t="s">
         <v>4</v>
@@ -44107,34 +44107,34 @@
         <v>115</v>
       </c>
       <c r="B30" s="315">
-        <v>7.7129006030557807</v>
+        <v>7.7129001507598991</v>
       </c>
       <c r="C30" s="315">
-        <v>7.7129006030557807</v>
+        <v>7.7129001507598991</v>
       </c>
       <c r="D30" s="315">
-        <v>6.99965340915117</v>
+        <v>6.9996528095311206</v>
       </c>
       <c r="E30" s="315">
-        <v>6.01828494856104</v>
+        <v>6.0182844625869</v>
       </c>
       <c r="F30" s="315">
-        <v>5.18991243312045</v>
+        <v>5.18991197367017</v>
       </c>
       <c r="G30" s="315">
-        <v>4.78572273029911</v>
+        <v>4.78572201629749</v>
       </c>
       <c r="H30" s="315">
-        <v>2.78513698932902</v>
+        <v>2.7851374308488297</v>
       </c>
       <c r="I30" s="315">
-        <v>2.22650518910267</v>
+        <v>2.22650573848019</v>
       </c>
       <c r="J30" s="315">
-        <v>1.92240819288601</v>
+        <v>1.92240872452708</v>
       </c>
       <c r="K30" s="315">
-        <v>2.86944251203719</v>
+        <v>2.86944283368634</v>
       </c>
       <c r="L30" s="287" t="s">
         <v>21</v>
@@ -44183,34 +44183,34 @@
         <v>117</v>
       </c>
       <c r="B32" s="316">
-        <v>1.8284511395132235</v>
+        <v>1.8284510322901486</v>
       </c>
       <c r="C32" s="316">
-        <v>1.8284511395132235</v>
+        <v>1.8284510322901486</v>
       </c>
       <c r="D32" s="316">
-        <v>1.6593659001763121</v>
+        <v>1.659365758027979</v>
       </c>
       <c r="E32" s="316">
-        <v>1.426718758407437</v>
+        <v>1.4267186432004591</v>
       </c>
       <c r="F32" s="316">
-        <v>1.2303414487868909</v>
+        <v>1.2303413398677654</v>
       </c>
       <c r="G32" s="316">
-        <v>1.1345226173591412</v>
+        <v>1.1345224480950549</v>
       </c>
       <c r="H32" s="316">
-        <v>0.66025574085856609</v>
+        <v>0.66025584552702243</v>
       </c>
       <c r="I32" s="316">
-        <v>0.52782424663089356</v>
+        <v>0.52782437686853112</v>
       </c>
       <c r="J32" s="316">
-        <v>0.45573379352242133</v>
+        <v>0.45573391955538478</v>
       </c>
       <c r="K32" s="316">
-        <v>0.68024154606937592</v>
+        <v>0.680241622320813</v>
       </c>
       <c r="L32" s="317" t="s">
         <v>4</v>
@@ -44524,34 +44524,34 @@
         <v>99</v>
       </c>
       <c r="B48" s="315">
-        <v>27.853658879999998</v>
+        <v>27.85381617</v>
       </c>
       <c r="C48" s="315">
-        <v>27.853021379999998</v>
+        <v>27.85317866</v>
       </c>
       <c r="D48" s="315">
-        <v>26.70347486</v>
+        <v>26.70363084</v>
       </c>
       <c r="E48" s="315">
-        <v>25.30682065</v>
+        <v>25.30697985</v>
       </c>
       <c r="F48" s="315">
-        <v>24.29354864</v>
+        <v>24.29370962</v>
       </c>
       <c r="G48" s="315">
-        <v>23.408573360000002</v>
+        <v>23.40873611</v>
       </c>
       <c r="H48" s="315">
-        <v>21.240589200000002</v>
+        <v>21.240749799999996</v>
       </c>
       <c r="I48" s="315">
-        <v>14.18633688</v>
+        <v>14.18649716</v>
       </c>
       <c r="J48" s="315">
-        <v>9.30448183</v>
+        <v>9.3046232699999987</v>
       </c>
       <c r="K48" s="315">
-        <v>24.40518466</v>
+        <v>24.40535327</v>
       </c>
       <c r="L48" s="287" t="s">
         <v>21</v>
@@ -44904,34 +44904,34 @@
         <v>110</v>
       </c>
       <c r="B58" s="316">
-        <v>18.122532420473803</v>
+        <v>18.122623222164592</v>
       </c>
       <c r="C58" s="316">
-        <v>18.122164399125488</v>
+        <v>18.12225519504339</v>
       </c>
       <c r="D58" s="316">
-        <v>17.458544571049185</v>
+        <v>17.45863461649218</v>
       </c>
       <c r="E58" s="316">
-        <v>16.65227243938017</v>
+        <v>16.652364343691779</v>
       </c>
       <c r="F58" s="316">
-        <v>16.067322393131583</v>
+        <v>16.067415325016523</v>
       </c>
       <c r="G58" s="316">
-        <v>15.556436445839495</v>
+        <v>15.556530399524887</v>
       </c>
       <c r="H58" s="316">
-        <v>14.3048845947961</v>
+        <v>14.304977307311454</v>
       </c>
       <c r="I58" s="316">
-        <v>10.232546746394105</v>
+        <v>10.232639274177176</v>
       </c>
       <c r="J58" s="316">
-        <v>7.4143087275188995</v>
+        <v>7.4143903791887125</v>
       </c>
       <c r="K58" s="316">
-        <v>16.131768728536127</v>
+        <v>16.131866065131479</v>
       </c>
       <c r="L58" s="317" t="s">
         <v>4</v>
@@ -45074,34 +45074,34 @@
         <v>115</v>
       </c>
       <c r="B63" s="315">
-        <v>11.8511499060226</v>
+        <v>11.851173679684699</v>
       </c>
       <c r="C63" s="315">
-        <v>11.524101745836699</v>
+        <v>11.524121377332302</v>
       </c>
       <c r="D63" s="315">
-        <v>9.8082598679951509</v>
+        <v>9.8082751817219087</v>
       </c>
       <c r="E63" s="315">
-        <v>8.25403855550525</v>
+        <v>8.25406012724333</v>
       </c>
       <c r="F63" s="315">
-        <v>7.58429825029911</v>
+        <v>7.58432202811641</v>
       </c>
       <c r="G63" s="315">
-        <v>7.17139910643492</v>
+        <v>7.1714229998463992</v>
       </c>
       <c r="H63" s="315">
-        <v>6.34967478775263</v>
+        <v>6.34969709558609</v>
       </c>
       <c r="I63" s="315">
-        <v>5.9029361274454306</v>
+        <v>5.9029559055537595</v>
       </c>
       <c r="J63" s="315">
-        <v>5.5857891272029105</v>
+        <v>5.5858073085852906</v>
       </c>
       <c r="K63" s="315">
-        <v>7.94565026636217</v>
+        <v>7.9456679527243308</v>
       </c>
       <c r="L63" s="287" t="s">
         <v>21</v>
@@ -45150,34 +45150,34 @@
         <v>117</v>
       </c>
       <c r="B65" s="316">
-        <v>2.8094811103392021</v>
+        <v>2.8094867462188526</v>
       </c>
       <c r="C65" s="316">
-        <v>2.7319497622844</v>
+        <v>2.7319544162054532</v>
       </c>
       <c r="D65" s="316">
-        <v>2.3251854075718668</v>
+        <v>2.3251890379053277</v>
       </c>
       <c r="E65" s="316">
-        <v>1.9567354720505927</v>
+        <v>1.9567405859333076</v>
       </c>
       <c r="F65" s="316">
-        <v>1.7979641501763126</v>
+        <v>1.7979697870410114</v>
       </c>
       <c r="G65" s="316">
-        <v>1.7000806237370632</v>
+        <v>1.7000862880049821</v>
       </c>
       <c r="H65" s="316">
-        <v>1.5052793622939831</v>
+        <v>1.5052846506784197</v>
       </c>
       <c r="I65" s="316">
-        <v>1.3993737044174008</v>
+        <v>1.3993783930950556</v>
       </c>
       <c r="J65" s="316">
-        <v>1.3241895650344959</v>
+        <v>1.3241938751858959</v>
       </c>
       <c r="K65" s="316">
-        <v>1.8836277078363366</v>
+        <v>1.8836319006362585</v>
       </c>
       <c r="L65" s="317" t="s">
         <v>4</v>
@@ -49054,7 +49054,7 @@
         <v>1.5955000000000001</v>
       </c>
       <c r="K12" s="323">
-        <v>59.218230648699468</v>
+        <v>60.295643998746471</v>
       </c>
     </row>
     <row r="13">
@@ -49062,34 +49062,34 @@
         <v>99</v>
       </c>
       <c r="B13" s="315">
-        <v>1.14448736</v>
+        <v>0.92737623</v>
       </c>
       <c r="C13" s="315">
-        <v>1.14448837</v>
+        <v>0.92773035999999987</v>
       </c>
       <c r="D13" s="315">
-        <v>1.15224803</v>
+        <v>0.92505011</v>
       </c>
       <c r="E13" s="315">
-        <v>1.15413839</v>
+        <v>0.91824716000000006</v>
       </c>
       <c r="F13" s="315">
-        <v>1.15143365</v>
+        <v>0.91263234</v>
       </c>
       <c r="G13" s="315">
-        <v>1.15129078</v>
+        <v>0.90773493</v>
       </c>
       <c r="H13" s="315">
-        <v>1.1479755</v>
+        <v>0.89755827999999993</v>
       </c>
       <c r="I13" s="315">
-        <v>1.03619957</v>
+        <v>0.83585713</v>
       </c>
       <c r="J13" s="315">
-        <v>0.89381801</v>
+        <v>0.77594708</v>
       </c>
       <c r="K13" s="323">
-        <v>71.8224874228471</v>
+        <v>72.372755283011173</v>
       </c>
     </row>
     <row r="14">
@@ -49124,7 +49124,7 @@
         <v>1.5955000000000001</v>
       </c>
       <c r="K14" s="323">
-        <v>59.218230648699468</v>
+        <v>60.295643998746471</v>
       </c>
     </row>
     <row r="15">
@@ -49237,34 +49237,34 @@
         <v>104</v>
       </c>
       <c r="B18" s="315">
-        <v>1.5338822987500003</v>
+        <v>1.5489917937604998</v>
       </c>
       <c r="C18" s="315">
-        <v>1.5338822987500003</v>
+        <v>1.5489917937604998</v>
       </c>
       <c r="D18" s="315">
-        <v>1.5338822987500003</v>
+        <v>1.5489917937604998</v>
       </c>
       <c r="E18" s="315">
-        <v>1.5338822987500003</v>
+        <v>1.5489917937604998</v>
       </c>
       <c r="F18" s="315">
-        <v>1.5338822987500003</v>
+        <v>1.5489917937604998</v>
       </c>
       <c r="G18" s="315">
-        <v>1.5338822987500003</v>
+        <v>1.5489917937604998</v>
       </c>
       <c r="H18" s="315">
-        <v>1.5338822987500003</v>
+        <v>1.5489917937604998</v>
       </c>
       <c r="I18" s="315">
-        <v>1.5338822987500003</v>
+        <v>1.5489917937604998</v>
       </c>
       <c r="J18" s="315">
-        <v>1.5338822987500003</v>
+        <v>1.5489917937604998</v>
       </c>
       <c r="K18" s="323">
-        <v>82.533733193984688</v>
+        <v>82.7041062535584</v>
       </c>
     </row>
     <row r="19">
@@ -49299,7 +49299,7 @@
         <v>1.8900000000000001</v>
       </c>
       <c r="K19" s="323">
-        <v>66.999097354497351</v>
+        <v>66.999104761904761</v>
       </c>
     </row>
     <row r="20">
@@ -49412,34 +49412,34 @@
         <v>110</v>
       </c>
       <c r="B23" s="316">
-        <v>1.3167927264024968</v>
+        <v>1.1927499571452678</v>
       </c>
       <c r="C23" s="316">
-        <v>1.3167933094637703</v>
+        <v>1.192954392282646</v>
       </c>
       <c r="D23" s="316">
-        <v>1.3212728710883397</v>
+        <v>1.1914071150766539</v>
       </c>
       <c r="E23" s="316">
-        <v>1.3223641539683397</v>
+        <v>1.1874798510272155</v>
       </c>
       <c r="F23" s="316">
-        <v>1.3208027389696877</v>
+        <v>1.1842384806320094</v>
       </c>
       <c r="G23" s="316">
-        <v>1.320720261777478</v>
+        <v>1.1814112627003242</v>
       </c>
       <c r="H23" s="316">
-        <v>1.3188063891254931</v>
+        <v>1.1755364008111855</v>
       </c>
       <c r="I23" s="316">
-        <v>1.254279442509463</v>
+        <v>1.1399170432965788</v>
       </c>
       <c r="J23" s="316">
-        <v>1.1720842210406992</v>
+        <v>1.105331667016429</v>
       </c>
       <c r="K23" s="324">
-        <v>70.37780523848447</v>
+        <v>70.528211285214269</v>
       </c>
       <c r="L23" s="322"/>
       <c r="M23" s="322"/>
@@ -50836,40 +50836,40 @@
         <v>4000</v>
       </c>
       <c r="C8" s="318">
-        <v>4017.9879760957</v>
+        <v>4017.98797637052</v>
       </c>
       <c r="D8" s="318">
-        <v>4036.53170628451</v>
+        <v>4036.53170754692</v>
       </c>
       <c r="E8" s="318">
-        <v>4055.84549371042</v>
+        <v>4055.84549709132</v>
       </c>
       <c r="F8" s="318">
-        <v>4074.26022080573</v>
+        <v>4074.2602280673</v>
       </c>
       <c r="G8" s="318">
-        <v>4092.1293926367402</v>
+        <v>4092.12940658295</v>
       </c>
       <c r="H8" s="318">
-        <v>4110.39679931319</v>
+        <v>4110.39682454333</v>
       </c>
       <c r="I8" s="318">
-        <v>4127.95295738133</v>
+        <v>4127.9530015230594</v>
       </c>
       <c r="J8" s="318">
-        <v>4145.97199283364</v>
+        <v>4145.97206506598</v>
       </c>
       <c r="K8" s="318">
-        <v>4163.51270205497</v>
+        <v>4163.51281124757</v>
       </c>
       <c r="L8" s="325">
-        <v>4180.61255305207</v>
+        <v>4180.61270775654</v>
       </c>
       <c r="M8" s="325">
-        <v>4198.03997581561</v>
+        <v>4198.04018429571</v>
       </c>
       <c r="N8" s="325">
-        <v>4214.6362491027794</v>
+        <v>4214.63651973054</v>
       </c>
     </row>
     <row r="9">
@@ -50880,40 +50880,40 @@
         <v>15784</v>
       </c>
       <c r="C9" s="318">
-        <v>15854.9805536736</v>
+        <v>15854.9805547581</v>
       </c>
       <c r="D9" s="318">
-        <v>15928.1541129987</v>
+        <v>15928.1541179802</v>
       </c>
       <c r="E9" s="318">
-        <v>16004.3663181813</v>
+        <v>16004.3663315223</v>
       </c>
       <c r="F9" s="318">
-        <v>16077.0308312994</v>
+        <v>16077.0308599536</v>
       </c>
       <c r="G9" s="318">
-        <v>16147.542583344599</v>
+        <v>16147.542638376299</v>
       </c>
       <c r="H9" s="318">
-        <v>16219.6257700899</v>
+        <v>16219.625869648</v>
       </c>
       <c r="I9" s="318">
-        <v>16288.902369826701</v>
+        <v>16288.90254401</v>
       </c>
       <c r="J9" s="318">
-        <v>16360.005483721501</v>
+        <v>16360.0057687504</v>
       </c>
       <c r="K9" s="318">
-        <v>16429.2211223089</v>
+        <v>16429.2215531829</v>
       </c>
       <c r="L9" s="325">
-        <v>16496.6971343435</v>
+        <v>16496.697744807298</v>
       </c>
       <c r="M9" s="325">
-        <v>16565.4657445684</v>
+        <v>16565.466567230902</v>
       </c>
       <c r="N9" s="325">
-        <v>16630.954638959498</v>
+        <v>16630.9557068567</v>
       </c>
     </row>
     <row r="10">
@@ -50924,40 +50924,40 @@
         <v>19784</v>
       </c>
       <c r="C10" s="326">
-        <v>19872.968529769303</v>
+        <v>19872.9685311286</v>
       </c>
       <c r="D10" s="326">
-        <v>19964.685819283197</v>
+        <v>19964.6858255271</v>
       </c>
       <c r="E10" s="326">
-        <v>20060.211811891702</v>
+        <v>20060.211828613697</v>
       </c>
       <c r="F10" s="326">
-        <v>20151.291052105098</v>
+        <v>20151.2910880209</v>
       </c>
       <c r="G10" s="326">
-        <v>20239.6719759813</v>
+        <v>20239.672044959298</v>
       </c>
       <c r="H10" s="326">
-        <v>20330.0225694031</v>
+        <v>20330.0226941913</v>
       </c>
       <c r="I10" s="326">
-        <v>20416.855327208003</v>
+        <v>20416.855545533097</v>
       </c>
       <c r="J10" s="326">
-        <v>20505.9774765552</v>
+        <v>20505.9778338163</v>
       </c>
       <c r="K10" s="326">
-        <v>20592.7338243639</v>
+        <v>20592.7343644305</v>
       </c>
       <c r="L10" s="327">
-        <v>20677.3096873956</v>
+        <v>20677.3104525638</v>
       </c>
       <c r="M10" s="327">
-        <v>20763.505720384</v>
+        <v>20763.506751526602</v>
       </c>
       <c r="N10" s="327">
-        <v>20845.5908880623</v>
+        <v>20845.592226587298</v>
       </c>
     </row>
     <row r="11">
@@ -52617,40 +52617,40 @@
         <v>126904</v>
       </c>
       <c r="C60" s="326">
-        <v>126992.968529769</v>
+        <v>126992.96853112901</v>
       </c>
       <c r="D60" s="326">
-        <v>127084.685819283</v>
+        <v>127084.68582552699</v>
       </c>
       <c r="E60" s="326">
-        <v>127180.211811892</v>
+        <v>127180.211828614</v>
       </c>
       <c r="F60" s="326">
-        <v>127271.29105210499</v>
+        <v>127271.291088021</v>
       </c>
       <c r="G60" s="326">
-        <v>127359.671975981</v>
+        <v>127359.67204495899</v>
       </c>
       <c r="H60" s="326">
-        <v>127450.022569403</v>
+        <v>127450.022694191</v>
       </c>
       <c r="I60" s="326">
-        <v>127536.855327208</v>
+        <v>127536.855545533</v>
       </c>
       <c r="J60" s="326">
-        <v>127625.97747655501</v>
+        <v>127625.97783381601</v>
       </c>
       <c r="K60" s="326">
-        <v>127712.73382436401</v>
+        <v>127712.73436443099</v>
       </c>
       <c r="L60" s="327">
-        <v>127797.309687396</v>
+        <v>127797.31045256401</v>
       </c>
       <c r="M60" s="327">
-        <v>127883.505720384</v>
+        <v>127883.50675152699</v>
       </c>
       <c r="N60" s="327">
-        <v>127965.590888062</v>
+        <v>127965.592226587</v>
       </c>
     </row>
     <row r="61">
